--- a/src/attributions/attributions_saliency_traj_181.xlsx
+++ b/src/attributions/attributions_saliency_traj_181.xlsx
@@ -1004,1140 +1004,1140 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0002392491151113063</v>
+        <v>0.06732848286628723</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0004008088726550341</v>
+        <v>0.3833684027194977</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002086627529934049</v>
+        <v>0.03323633223772049</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00181531417183578</v>
+        <v>0.1897079348564148</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000607946130912751</v>
+        <v>0.05082228034734726</v>
       </c>
       <c r="F2" t="n">
-        <v>1.545659324619919e-05</v>
+        <v>0.1161199808120728</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0002928160829469562</v>
+        <v>0.00679634977132082</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002039871644228697</v>
+        <v>0.009218074381351471</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001177172409370542</v>
+        <v>0.007331374101340771</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0006371233030222356</v>
+        <v>0.08441610634326935</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0004908620030619204</v>
+        <v>0.2655494213104248</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001371605088934302</v>
+        <v>0.006758969277143478</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006332547636702657</v>
+        <v>0.1580517888069153</v>
       </c>
       <c r="N2" t="n">
-        <v>5.264533683657646e-05</v>
+        <v>0.07448375225067139</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001220186939463019</v>
+        <v>0.1549170464277267</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0002281442284584045</v>
+        <v>0.02542304247617722</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0027344124391675</v>
+        <v>0.06463027000427246</v>
       </c>
       <c r="R2" t="n">
-        <v>0.001569754211232066</v>
+        <v>0.0189715251326561</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0002887888986151665</v>
+        <v>0.01012525986880064</v>
       </c>
       <c r="T2" t="n">
-        <v>0.001311109284870327</v>
+        <v>0.03249503672122955</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0007708785706199706</v>
+        <v>0.007066601421684027</v>
       </c>
       <c r="V2" t="n">
-        <v>0.000384934653993696</v>
+        <v>0.0475337840616703</v>
       </c>
       <c r="W2" t="n">
-        <v>0.001176870660856366</v>
+        <v>0.01626153476536274</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0003787780879065394</v>
+        <v>0.03990303725004196</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0003184736706316471</v>
+        <v>0.04490857571363449</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0008099246770143509</v>
+        <v>0.01595618389546871</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0001904015662148595</v>
+        <v>0.03869836777448654</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0002970662317238748</v>
+        <v>0.01232240907847881</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.251650534570217e-05</v>
+        <v>0.02305964194238186</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.0001917426998261362</v>
+        <v>0.01749424077570438</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0007510714931413531</v>
+        <v>0.001573490910232067</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0006720211240462959</v>
+        <v>0.02526273019611835</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0003917365975212306</v>
+        <v>0.01750597171485424</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0004502556985244155</v>
+        <v>0.01534902583807707</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0008230618550442159</v>
+        <v>0.003327714279294014</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0006501921452581882</v>
+        <v>0.02190300449728966</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0001083110546460375</v>
+        <v>0.01954901963472366</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0005278719472698867</v>
+        <v>0.03966275230050087</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.0003767861926462501</v>
+        <v>0.009013538248836994</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.0004230965860188007</v>
+        <v>0.004835980013012886</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.0007194878999143839</v>
+        <v>0.007245868444442749</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.0001126966162701137</v>
+        <v>0.03233620151877403</v>
       </c>
       <c r="AQ2" t="n">
-        <v>8.552354120183736e-05</v>
+        <v>0.02240126579999924</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.0004774870176333934</v>
+        <v>0.01308237668126822</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0001165323337772861</v>
+        <v>0.03119565546512604</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.0001241394784301519</v>
+        <v>0.009813357144594193</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.0002724802470766008</v>
+        <v>0.2366055846214294</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.001019590999931097</v>
+        <v>0.002072746865451336</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.001114525366574526</v>
+        <v>0.04581477120518684</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.0003878987045027316</v>
+        <v>0.0103433346375823</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.0003324132121633738</v>
+        <v>0.01220745779573917</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.000353727926267311</v>
+        <v>0.01113699190318584</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.001604653312824667</v>
+        <v>0.01091498509049416</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.365679054288194e-05</v>
+        <v>0.03691761940717697</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.0001639798138057813</v>
+        <v>0.04276542738080025</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.000193309155292809</v>
+        <v>0.06935586780309677</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.0003483956388663501</v>
+        <v>0.07099087536334991</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.0008945126319304109</v>
+        <v>0.04113011062145233</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.0001201862178277224</v>
+        <v>0.08598208427429199</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.0004427862877491862</v>
+        <v>0.07607807964086533</v>
       </c>
       <c r="BI2" t="n">
-        <v>6.646451220149174e-05</v>
+        <v>0.003672536462545395</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0005840925732627511</v>
+        <v>0.04837565869092941</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0004537260392680764</v>
+        <v>0.01282848976552486</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0002069582988042384</v>
+        <v>0.05987945571541786</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.0001657183456700295</v>
+        <v>0.02228167094290257</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.000417605391703546</v>
+        <v>0.009851875714957714</v>
       </c>
       <c r="BO2" t="n">
-        <v>3.177396138198674e-05</v>
+        <v>0.02387160249054432</v>
       </c>
       <c r="BP2" t="n">
-        <v>1.879199407994747e-05</v>
+        <v>0.004714064300060272</v>
       </c>
       <c r="BQ2" t="n">
-        <v>8.127722685458139e-05</v>
+        <v>0.01995285227894783</v>
       </c>
       <c r="BR2" t="n">
-        <v>8.603802416473627e-05</v>
+        <v>0.007761510089039803</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.0003547797678038478</v>
+        <v>0.004707099869847298</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.0003549854154698551</v>
+        <v>0.006732623092830181</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.0001292157976422459</v>
+        <v>0.004047682508826256</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.0003182108921464533</v>
+        <v>0.1201156005263329</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.0007308414787985384</v>
+        <v>0.0141333369538188</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.0004998774966225028</v>
+        <v>0.03090335614979267</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.0005113862571306527</v>
+        <v>0.004812256898730993</v>
       </c>
       <c r="BZ2" t="n">
-        <v>5.693212006008253e-05</v>
+        <v>0.06224995106458664</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.0002090009220410138</v>
+        <v>0.03115922026336193</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.0006497596041299403</v>
+        <v>0.01669177785515785</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.0004358534351922572</v>
+        <v>0.02926177345216274</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.0002268235839437693</v>
+        <v>0.0260192509740591</v>
       </c>
       <c r="CE2" t="n">
-        <v>2.961687641800381e-05</v>
+        <v>0.05923766270279884</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.0004394756397232413</v>
+        <v>0.02254578471183777</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.000412006163969636</v>
+        <v>0.02004878222942352</v>
       </c>
       <c r="CH2" t="n">
-        <v>6.198970368131995e-05</v>
+        <v>0.02050838246941566</v>
       </c>
       <c r="CI2" t="n">
-        <v>6.829257472418249e-05</v>
+        <v>0.03228957578539848</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0002200181188527495</v>
+        <v>0.008156619034707546</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.0002973672526422888</v>
+        <v>0.001806535758078098</v>
       </c>
       <c r="CL2" t="n">
-        <v>7.915635069366544e-05</v>
+        <v>0.02039400860667229</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.0001497009943705052</v>
+        <v>0.004045804962515831</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.0007156337378546596</v>
+        <v>0.009953796863555908</v>
       </c>
       <c r="CO2" t="n">
-        <v>4.795516724698246e-05</v>
+        <v>0.004111483693122864</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.0005680002504959702</v>
+        <v>0.04477573186159134</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0004533478931989521</v>
+        <v>0.03606287389993668</v>
       </c>
       <c r="CR2" t="n">
-        <v>5.534196679946035e-05</v>
+        <v>0.02634396404027939</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.0002895344805438071</v>
+        <v>0.04615515097975731</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.0001547985157230869</v>
+        <v>0.05629439651966095</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.0006927394424565136</v>
+        <v>0.009366807527840137</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.0002175159170292318</v>
+        <v>0.02183043211698532</v>
       </c>
       <c r="CW2" t="n">
-        <v>3.630649734986946e-05</v>
+        <v>0.04970081895589828</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.0006011564983054996</v>
+        <v>0.01914718002080917</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.0003192145959474146</v>
+        <v>0.03731236606836319</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.0002231711987406015</v>
+        <v>0.0168917216360569</v>
       </c>
       <c r="DA2" t="n">
-        <v>2.817090171447489e-05</v>
+        <v>0.03836708515882492</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.0001025524470605887</v>
+        <v>0.009303104132413864</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.0002015898644458503</v>
+        <v>0.0006687622517347336</v>
       </c>
       <c r="DD2" t="n">
-        <v>3.400647983653471e-06</v>
+        <v>0.01007444877177477</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.0002252224076073617</v>
+        <v>0.01298626232892275</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.0005401499220170081</v>
+        <v>0.05633450299501419</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0008425223059020936</v>
+        <v>0.06566191464662552</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.0008261867915280163</v>
+        <v>0.1452965140342712</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.000644710089545697</v>
+        <v>0.01717729121446609</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.0001592217013239861</v>
+        <v>0.02943983301520348</v>
       </c>
       <c r="DK2" t="n">
-        <v>2.818150096572936e-05</v>
+        <v>0.004001599736511707</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.0001641433627810329</v>
+        <v>0.01876344159245491</v>
       </c>
       <c r="DM2" t="n">
-        <v>1.566296850796789e-05</v>
+        <v>0.005811240524053574</v>
       </c>
       <c r="DN2" t="n">
-        <v>4.323212124290876e-05</v>
+        <v>0.04853817448019981</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.0002685159852262586</v>
+        <v>0.03951984643936157</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.0003599102492444217</v>
+        <v>0.008180170319974422</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.0003244787803851068</v>
+        <v>0.04343339428305626</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.0005433884216472507</v>
+        <v>0.02383989468216896</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.0004473112639971077</v>
+        <v>0.0551958829164505</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.0001690921344561502</v>
+        <v>0.007302839774638414</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.0005039379466325045</v>
+        <v>0.001529885688796639</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.0003966011863667518</v>
+        <v>0.03532721847295761</v>
       </c>
       <c r="DW2" t="n">
-        <v>6.366004527080804e-05</v>
+        <v>0.02667712233960629</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.0003690580779220909</v>
+        <v>0.01805841736495495</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.0002137639530701563</v>
+        <v>0.06214260682463646</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.0004119969671592116</v>
+        <v>0.001239189994521439</v>
       </c>
       <c r="EA2" t="n">
-        <v>1.505146792624146e-05</v>
+        <v>0.0204000398516655</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.0004724367172457278</v>
+        <v>0.01655999198555946</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.0001564727717777714</v>
+        <v>0.006942142266780138</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.0003798534453380853</v>
+        <v>0.0002847108407877386</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.0003920204180758446</v>
+        <v>0.01076498068869114</v>
       </c>
       <c r="EF2" t="n">
-        <v>1.415421138517559e-05</v>
+        <v>0.005425759591162205</v>
       </c>
       <c r="EG2" t="n">
-        <v>5.751069693360478e-05</v>
+        <v>0.03794269636273384</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.0003198356425855309</v>
+        <v>0.01142008416354656</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.0004535265907179564</v>
+        <v>0.005412241443991661</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0006572244456037879</v>
+        <v>0.008452590554952621</v>
       </c>
       <c r="EK2" t="n">
-        <v>8.078762766672298e-05</v>
+        <v>0.02927767485380173</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.0001011572603601962</v>
+        <v>0.008113354444503784</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.0004743114404845983</v>
+        <v>0.01778021827340126</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.0002421337412670255</v>
+        <v>0.003621118608862162</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.0005033178022131324</v>
+        <v>0.01351530011743307</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.0002744442608673126</v>
+        <v>0.02818246558308601</v>
       </c>
       <c r="EQ2" t="n">
-        <v>7.430680125253275e-05</v>
+        <v>0.01771636120975018</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.0004513811145443469</v>
+        <v>0.01560153439640999</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.0003516690339893103</v>
+        <v>0.02700571157038212</v>
       </c>
       <c r="ET2" t="n">
-        <v>1.183088170364499e-05</v>
+        <v>0.1062499433755875</v>
       </c>
       <c r="EU2" t="n">
-        <v>1.306529156863689e-06</v>
+        <v>0.01229371223598719</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.0003946228243876249</v>
+        <v>0.03548833355307579</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.00022877351148054</v>
+        <v>0.01191094517707825</v>
       </c>
       <c r="EX2" t="n">
-        <v>9.607146785128862e-05</v>
+        <v>0.02378750033676624</v>
       </c>
       <c r="EY2" t="n">
-        <v>7.049029227346182e-05</v>
+        <v>0.04879606887698174</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.0006168750114738941</v>
+        <v>0.00713513046503067</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.0003211201983503997</v>
+        <v>0.02513999119400978</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.0001726066111586988</v>
+        <v>0.0121740847826004</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.0001232615031767637</v>
+        <v>0.03774886205792427</v>
       </c>
       <c r="FD2" t="n">
-        <v>5.999135100864805e-05</v>
+        <v>0.01444150786846876</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.0001863120414782315</v>
+        <v>0.001931591425091028</v>
       </c>
       <c r="FF2" t="n">
-        <v>5.387184137362055e-05</v>
+        <v>0.01975887641310692</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.0002111891517415643</v>
+        <v>0.0155526390299201</v>
       </c>
       <c r="FH2" t="n">
-        <v>2.093288640026003e-05</v>
+        <v>0.03110127337276936</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.000404006423195824</v>
+        <v>0.01703472994267941</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.0002293191064381972</v>
+        <v>0.01578299887478352</v>
       </c>
       <c r="FK2" t="n">
-        <v>5.584158498095348e-05</v>
+        <v>0.01022402010858059</v>
       </c>
       <c r="FL2" t="n">
-        <v>4.324849578551948e-05</v>
+        <v>0.008875114843249321</v>
       </c>
       <c r="FM2" t="n">
-        <v>9.373264765599743e-05</v>
+        <v>0.001095008105039597</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.0002142258163075894</v>
+        <v>0.03101265430450439</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.0002845123235601932</v>
+        <v>0.02236615121364594</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.0009985155193135142</v>
+        <v>0.01734625175595284</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.001005355035886168</v>
+        <v>0.007048201281577349</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.0009003719897009432</v>
+        <v>0.005644898861646652</v>
       </c>
       <c r="FS2" t="n">
-        <v>2.910327748395503e-05</v>
+        <v>0.0281960740685463</v>
       </c>
       <c r="FT2" t="n">
-        <v>4.736472692457028e-05</v>
+        <v>0.08213381469249725</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.0003528031520545483</v>
+        <v>0.003397442400455475</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.0004827941302210093</v>
+        <v>0.01373420096933842</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.0004500236245803535</v>
+        <v>0.02692514844238758</v>
       </c>
       <c r="FX2" t="n">
-        <v>5.651868559652939e-05</v>
+        <v>0.02661309763789177</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.0005705930525436997</v>
+        <v>0.02935570478439331</v>
       </c>
       <c r="FZ2" t="n">
-        <v>8.389128197450191e-05</v>
+        <v>0.01006100606173277</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.0004576787177938968</v>
+        <v>0.006604801863431931</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.0001237647811649367</v>
+        <v>0.008793001063168049</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.0006539205787703395</v>
+        <v>0.008673769421875477</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.001008247025310993</v>
+        <v>0.04652156308293343</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.000273792160442099</v>
+        <v>0.07098656892776489</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.0003480524464976043</v>
+        <v>0.02483117952942848</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.0002236777800135314</v>
+        <v>0.0255240760743618</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.03321566805243492</v>
+        <v>0.2023859024047852</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07662194967269897</v>
+        <v>1.760345339775085</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004282354842871428</v>
+        <v>0.169800877571106</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1391753852367401</v>
+        <v>1.012462496757507</v>
       </c>
       <c r="E3" t="n">
-        <v>0.005465874914079905</v>
+        <v>0.4454622864723206</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01739195920526981</v>
+        <v>0.6598052382469177</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07119040936231613</v>
+        <v>0.06582251936197281</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01583278365433216</v>
+        <v>0.001903504133224487</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1320214420557022</v>
+        <v>0.1607359796762466</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05918417870998383</v>
+        <v>0.08295495808124542</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0496213287115097</v>
+        <v>1.469298005104065</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007405906915664673</v>
+        <v>0.005332822911441326</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01694840937852859</v>
+        <v>0.8757004141807556</v>
       </c>
       <c r="N3" t="n">
-        <v>0.09774090349674225</v>
+        <v>0.5867722630500793</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03107303567230701</v>
+        <v>0.6810046434402466</v>
       </c>
       <c r="P3" t="n">
-        <v>0.05676089227199554</v>
+        <v>0.2133021503686905</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.003471768693998456</v>
+        <v>0.2652999758720398</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1695971637964249</v>
+        <v>0.2011615931987762</v>
       </c>
       <c r="S3" t="n">
-        <v>0.02930260822176933</v>
+        <v>0.1032455489039421</v>
       </c>
       <c r="T3" t="n">
-        <v>0.015044373460114</v>
+        <v>0.2532499432563782</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004884135443717241</v>
+        <v>0.04327839612960815</v>
       </c>
       <c r="V3" t="n">
-        <v>0.06585752218961716</v>
+        <v>0.2086860984563828</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1274496018886566</v>
+        <v>0.0101077277213335</v>
       </c>
       <c r="X3" t="n">
-        <v>0.002047135261818767</v>
+        <v>0.2600886225700378</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.001589754596352577</v>
+        <v>0.195720911026001</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.001126815332099795</v>
+        <v>0.2217555195093155</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.01779957488179207</v>
+        <v>0.223770946264267</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.07887300848960876</v>
+        <v>0.1209676563739777</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.004596684593707323</v>
+        <v>0.0471765547990799</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.0580638013780117</v>
+        <v>0.08020791411399841</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.04839598014950752</v>
+        <v>0.1002658978104591</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.06691516935825348</v>
+        <v>0.09051647782325745</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.007667712867259979</v>
+        <v>0.1491631269454956</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.002996047027409077</v>
+        <v>0.07511237263679504</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.02162947505712509</v>
+        <v>0.07542677223682404</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.04164178296923637</v>
+        <v>0.1475042402744293</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.05656294897198677</v>
+        <v>0.004600081592798233</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.0181641448289156</v>
+        <v>0.3504495918750763</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.01755534112453461</v>
+        <v>0.1144578009843826</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.02238565497100353</v>
+        <v>0.06816737353801727</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.009558778256177902</v>
+        <v>0.04803486913442612</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.03181860595941544</v>
+        <v>0.1089023724198341</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.01149850431829691</v>
+        <v>0.06735479831695557</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.01385368406772614</v>
+        <v>0.02545430511236191</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.02851586230099201</v>
+        <v>0.1813095808029175</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.04036096483469009</v>
+        <v>0.4694548845291138</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.06986647099256516</v>
+        <v>1.198572754859924</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.03121800348162651</v>
+        <v>0.1087570711970329</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.09704252332448959</v>
+        <v>0.4867599308490753</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.008500018157064915</v>
+        <v>0.01966410130262375</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.02125164493918419</v>
+        <v>0.1344010531902313</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.03515058755874634</v>
+        <v>0.0559554286301136</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.01516279391944408</v>
+        <v>0.05846983194351196</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.02160673588514328</v>
+        <v>0.1690346151590347</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.02912230230867863</v>
+        <v>0.08339492231607437</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.01813505962491035</v>
+        <v>0.2002098560333252</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.01051332242786884</v>
+        <v>0.3915432393550873</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.003678588196635246</v>
+        <v>0.1821878850460052</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.01851567812263966</v>
+        <v>0.700065016746521</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.02826767414808273</v>
+        <v>0.2261956036090851</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.003129213582724333</v>
+        <v>0.2245175838470459</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.01033983286470175</v>
+        <v>0.09003699570894241</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.07097088545560837</v>
+        <v>0.2120295017957687</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.04207094386219978</v>
+        <v>0.1396906226873398</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.03289643302559853</v>
+        <v>0.03387926518917084</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.039850153028965</v>
+        <v>0.125725656747818</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.02790609374642372</v>
+        <v>0.09320291131734848</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.02679250575602055</v>
+        <v>0.06870558857917786</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.02002226188778877</v>
+        <v>0.1065185219049454</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.01244207471609116</v>
+        <v>0.03951911628246307</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.003601372241973877</v>
+        <v>0.06759384274482727</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.02562452107667923</v>
+        <v>0.1188391447067261</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.0601334385573864</v>
+        <v>0.3101211786270142</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.02273079007863998</v>
+        <v>0.7270285487174988</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.002388285472989082</v>
+        <v>0.1777305006980896</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.07389646768569946</v>
+        <v>0.2989145815372467</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.002535624196752906</v>
+        <v>0.09417741000652313</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.02866770327091217</v>
+        <v>0.09479382634162903</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.03043845482170582</v>
+        <v>0.05579401180148125</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.02765294536948204</v>
+        <v>0.1778902411460876</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.05193695798516273</v>
+        <v>0.1545257270336151</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.06453424692153931</v>
+        <v>0.006940863095223904</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.01944475807249546</v>
+        <v>0.248622938990593</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.004564247094094753</v>
+        <v>0.1893881410360336</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.0293397530913353</v>
+        <v>0.1679020673036575</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.01207290310412645</v>
+        <v>0.02390885353088379</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.02258992195129395</v>
+        <v>0.1837694197893143</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.007225301116704941</v>
+        <v>0.07707930356264114</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.02456896565854549</v>
+        <v>0.04988893121480942</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.01413645967841148</v>
+        <v>0.1215800046920776</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.01305968686938286</v>
+        <v>0.2522614002227783</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.04455432295799255</v>
+        <v>0.03139325976371765</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.03388785198330879</v>
+        <v>0.07842179387807846</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.0138182295486331</v>
+        <v>0.05234267562627792</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.002074254211038351</v>
+        <v>0.1074938848614693</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.09604797512292862</v>
+        <v>0.006349427625536919</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.02443918213248253</v>
+        <v>0.1885278820991516</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.004684631247073412</v>
+        <v>0.1136502549052238</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.001202703453600407</v>
+        <v>0.06467415392398834</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.05929102003574371</v>
+        <v>0.006836296990513802</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.02047081850469112</v>
+        <v>0.225515678524971</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.002230168785899878</v>
+        <v>0.1761674582958221</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.03359446302056313</v>
+        <v>0.2067393511533737</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.01776747964322567</v>
+        <v>0.001781233586370945</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.0206783190369606</v>
+        <v>0.2202654778957367</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.009567492641508579</v>
+        <v>0.06329222768545151</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.02682057768106461</v>
+        <v>0.06901890784502029</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.01709687151014805</v>
+        <v>0.04471741616725922</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.06889872252941132</v>
+        <v>0.01695675030350685</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.0309325810521841</v>
+        <v>0.1635337322950363</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.03143388777971268</v>
+        <v>0.007471202872693539</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.05694194883108139</v>
+        <v>0.8209132552146912</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.03660507500171661</v>
+        <v>0.3696761131286621</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.06210343539714813</v>
+        <v>0.08130438625812531</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.01550652272999287</v>
+        <v>0.03190835565328598</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.05655473098158836</v>
+        <v>0.1280382871627808</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.009578012861311436</v>
+        <v>0.0148109570145607</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.04044495522975922</v>
+        <v>0.05377612262964249</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.01350557431578636</v>
+        <v>0.03172817453742027</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.02449425682425499</v>
+        <v>0.08667949587106705</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.03362659737467766</v>
+        <v>0.03039253316819668</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.04496348649263382</v>
+        <v>0.1670348048210144</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.01006901729851961</v>
+        <v>0.1502395421266556</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.005276378244161606</v>
+        <v>0.1188410520553589</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.05565950274467468</v>
+        <v>0.004314934369176626</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.0008800437208265066</v>
+        <v>0.2555947601795197</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.01168910600244999</v>
+        <v>0.03402046859264374</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.002515150466933846</v>
+        <v>0.08090738207101822</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.03228873759508133</v>
+        <v>0.2485054731369019</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.05214252695441246</v>
+        <v>0.2830855846405029</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.01983235031366348</v>
+        <v>0.08043219894170761</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.09622915834188461</v>
+        <v>0.004320435225963593</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.01067328825592995</v>
+        <v>0.02913534641265869</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.04100849106907845</v>
+        <v>0.09497561305761337</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.007946454919874668</v>
+        <v>0.04087897390127182</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.05138038098812103</v>
+        <v>0.08695697784423828</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.01299531105905771</v>
+        <v>0.1746180504560471</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.003095551393926144</v>
+        <v>0.1843587011098862</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.01184409018605947</v>
+        <v>0.09964941442012787</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.06566312164068222</v>
+        <v>0.0639641135931015</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.06015543639659882</v>
+        <v>0.2883372604846954</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.03493145108222961</v>
+        <v>0.06775009632110596</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.008764144964516163</v>
+        <v>0.04511376470327377</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.02381965331733227</v>
+        <v>0.01144313812255859</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.04992097988724709</v>
+        <v>0.002755925059318542</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.01156416814774275</v>
+        <v>0.1131688356399536</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.01088774390518665</v>
+        <v>0.2492786049842834</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.01202888414263725</v>
+        <v>0.1019013524055481</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.05141013860702515</v>
+        <v>0.02752804569900036</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.01046199165284634</v>
+        <v>0.4544576704502106</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.006486115045845509</v>
+        <v>0.07597693055868149</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.02478344365954399</v>
+        <v>0.2620256245136261</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.01000180374830961</v>
+        <v>0.003152196761220694</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.05242152884602547</v>
+        <v>0.02252743393182755</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.01696528494358063</v>
+        <v>0.2186736017465591</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.001043627737089992</v>
+        <v>0.11197280138731</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.02419654466211796</v>
+        <v>0.2152421176433563</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.01964864321053028</v>
+        <v>0.03927271068096161</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.025560412555933</v>
+        <v>0.1994663029909134</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.006586841773241758</v>
+        <v>0.1052783727645874</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.01926213689148426</v>
+        <v>0.05477309972047806</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.01841790415346622</v>
+        <v>0.1076254844665527</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.06132986396551132</v>
+        <v>0.01446115132421255</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.04351935163140297</v>
+        <v>0.2467895597219467</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.005859491880983114</v>
+        <v>0.0813886821269989</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.00797905120998621</v>
+        <v>0.08202626556158066</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.02434182725846767</v>
+        <v>0.04842884838581085</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.07823499292135239</v>
+        <v>0.04640959575772285</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.001014230772852898</v>
+        <v>0.01385602727532387</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.02969313785433769</v>
+        <v>0.1304664611816406</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.01501890365034342</v>
+        <v>0.08432602882385254</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.004325693938881159</v>
+        <v>0.2942956984043121</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.01578305847942829</v>
+        <v>0.5987744331359863</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.05293194204568863</v>
+        <v>0.1553245186805725</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.05763744935393333</v>
+        <v>0.6942699551582336</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.01963768899440765</v>
+        <v>0.1957343518733978</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.03500845655798912</v>
+        <v>0.1475764513015747</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.009418774396181107</v>
+        <v>0.1149302497506142</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.005854473449289799</v>
+        <v>0.03592275828123093</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.03128732368350029</v>
+        <v>0.08259828388690948</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.0813940167427063</v>
+        <v>0.2586778700351715</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.02335938811302185</v>
+        <v>0.08384820818901062</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.03446247801184654</v>
+        <v>0.1237035244703293</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.02033646032214165</v>
+        <v>0.09646599739789963</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.02097338996827602</v>
+        <v>0.1073767319321632</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.005633492954075336</v>
+        <v>0.02280598133802414</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.01154970563948154</v>
+        <v>0.6360382437705994</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.01435988396406174</v>
+        <v>0.05726077407598495</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.002400600351393223</v>
+        <v>0.1041198819875717</v>
       </c>
     </row>
     <row r="4">
@@ -2711,1140 +2711,1140 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.02399079874157906</v>
+        <v>0.0002617277204990387</v>
       </c>
       <c r="B5" t="n">
-        <v>0.003426877548918128</v>
+        <v>0.001762598985806108</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01497944630682468</v>
+        <v>0.0002669929817784578</v>
       </c>
       <c r="D5" t="n">
-        <v>0.007939555682241917</v>
+        <v>0.0003826389438472688</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00199719681404531</v>
+        <v>0.0007566412095911801</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001265052473172545</v>
+        <v>0.001257615629583597</v>
       </c>
       <c r="G5" t="n">
-        <v>0.004055798053741455</v>
+        <v>0.0001996539358515292</v>
       </c>
       <c r="H5" t="n">
-        <v>0.005695321131497622</v>
+        <v>0.0005483202985487878</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003247832180932164</v>
+        <v>1.020986474031815e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02150911837816238</v>
+        <v>0.0002357150660827756</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002240014262497425</v>
+        <v>0.001656929962337017</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01578188687562943</v>
+        <v>0.0001449263218091801</v>
       </c>
       <c r="M5" t="n">
-        <v>0.006257414817810059</v>
+        <v>0.0007889100816100836</v>
       </c>
       <c r="N5" t="n">
-        <v>0.009653043001890182</v>
+        <v>0.000767940713558346</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001766073401086032</v>
+        <v>0.001460386556573212</v>
       </c>
       <c r="P5" t="n">
-        <v>0.00684090843424201</v>
+        <v>0.0004844660870730877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.00514538586139679</v>
+        <v>0.000138668532599695</v>
       </c>
       <c r="R5" t="n">
-        <v>0.006082534790039062</v>
+        <v>0.0002050090843113139</v>
       </c>
       <c r="S5" t="n">
-        <v>0.002213203348219395</v>
+        <v>6.656919867964461e-05</v>
       </c>
       <c r="T5" t="n">
-        <v>0.006105269305408001</v>
+        <v>0.0003505237982608378</v>
       </c>
       <c r="U5" t="n">
-        <v>0.000258046668022871</v>
+        <v>2.394312286924105e-05</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0005417875945568085</v>
+        <v>0.0001673719380050898</v>
       </c>
       <c r="W5" t="n">
-        <v>0.002716335700824857</v>
+        <v>0.0002997523115482181</v>
       </c>
       <c r="X5" t="n">
-        <v>0.001602757372893393</v>
+        <v>6.310780008789152e-05</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.947798050940037e-06</v>
+        <v>9.00546001503244e-05</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.005417495034635067</v>
+        <v>0.0001884885132312775</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.001207860186696053</v>
+        <v>0.000149839004734531</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.001631438615731895</v>
+        <v>0.0004263315931893885</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.001165683730505407</v>
+        <v>0.0003041295858565718</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.001703239046037197</v>
+        <v>0.0004275849205441773</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.0007692043436691165</v>
+        <v>0.0003304124111309648</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.000356452219421044</v>
+        <v>0.0003296174108982086</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.003352875355631113</v>
+        <v>0.0001304625620832667</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.002434386871755123</v>
+        <v>0.0003162664943374693</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.005116090644150972</v>
+        <v>2.815518382703885e-05</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.003049317514523864</v>
+        <v>0.0001811514666769654</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.004001400899142027</v>
+        <v>4.018130857730284e-05</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.003655950538814068</v>
+        <v>0.0004663227591663599</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.00141053507104516</v>
+        <v>8.205587801057845e-05</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.002997875679284334</v>
+        <v>7.287056359928101e-05</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.002378508914262056</v>
+        <v>0.0001807096996344626</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.002595964819192886</v>
+        <v>0.00011699727474479</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.310027437284589e-05</v>
+        <v>0.0001812334812711924</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.001839292701333761</v>
+        <v>7.088962593115866e-05</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.0002895275829359889</v>
+        <v>6.832591316197067e-05</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.01097800768911839</v>
+        <v>0.0001320685405516997</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.001274018315598369</v>
+        <v>0.001240753103047609</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.007943494245409966</v>
+        <v>0.0002528411569073796</v>
       </c>
       <c r="AW5" t="n">
-        <v>3.482535248622298e-06</v>
+        <v>0.0003651712031569332</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.000522626971360296</v>
+        <v>9.866719483397901e-05</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.004758750554174185</v>
+        <v>3.813680086750537e-05</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.002929381327703595</v>
+        <v>0.0006012528901919723</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.003341769566759467</v>
+        <v>0.0001399435859639198</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.003781369188800454</v>
+        <v>0.0001814683782868087</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.007174601312726736</v>
+        <v>5.765584137407131e-05</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.004494734574109316</v>
+        <v>0.0003618684422690421</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.005043945740908384</v>
+        <v>0.0003171882999595255</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.000542562804184854</v>
+        <v>3.983947681263089e-05</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.0009080528980121017</v>
+        <v>0.0007598722004331648</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.002861328888684511</v>
+        <v>0.0007456766907125711</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.002005015499889851</v>
+        <v>0.0002673538110684603</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.003825374413281679</v>
+        <v>6.816821405664086e-05</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.002032548654824495</v>
+        <v>0.0003175098972860724</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.003024243982508779</v>
+        <v>7.588890730403364e-05</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.002649092115461826</v>
+        <v>0.0003243006649427116</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.002092546783387661</v>
+        <v>3.507440851535648e-06</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.003332864725962281</v>
+        <v>0.0002232995466329157</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.006388390436768532</v>
+        <v>0.0003293874324299395</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.001151995733380318</v>
+        <v>0.0001100087465601973</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.001741417334415019</v>
+        <v>0.0002540548448450863</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.001837656949646771</v>
+        <v>2.683973434614018e-05</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.001007749233394861</v>
+        <v>5.375243563321419e-05</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.008098138496279716</v>
+        <v>8.313293801620603e-05</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.0002389729488641024</v>
+        <v>0.0006642011576332152</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.004001526162028313</v>
+        <v>9.547286026645452e-05</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.004760781303048134</v>
+        <v>0.0001316123089054599</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.0009864853927865624</v>
+        <v>0.00010344669863116</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.001865000114776194</v>
+        <v>1.804230305424426e-05</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.0003682445967569947</v>
+        <v>0.0003162069479003549</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.003246812615543604</v>
+        <v>0.0001030704152071849</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.0002860583190340549</v>
+        <v>3.095179636147805e-05</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.004978789482265711</v>
+        <v>9.175876039080322e-05</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.002170004416257143</v>
+        <v>0.0002932156203314662</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.003116426290944219</v>
+        <v>2.271934135933407e-05</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.002530651399865746</v>
+        <v>0.0001227735920110717</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.0008207107894122601</v>
+        <v>2.796902481350116e-05</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.001202273415401578</v>
+        <v>0.0002280095213791355</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.0004974559415131807</v>
+        <v>0.0002296059974469244</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.001701824483461678</v>
+        <v>9.575270814821124e-05</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.0001407328236382455</v>
+        <v>3.985032526543364e-05</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.001781192841008306</v>
+        <v>0.0002374572213739157</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.004462424665689468</v>
+        <v>0.0002520753769204021</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.001426844042725861</v>
+        <v>6.505403143819422e-05</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.0009574625291861594</v>
+        <v>0.0001215511292684823</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.00442043412476778</v>
+        <v>0.0001804041530704126</v>
       </c>
       <c r="CR5" t="n">
-        <v>3.492750693112612e-06</v>
+        <v>0.0003457074053585529</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.004321225918829441</v>
+        <v>0.0003700503730215132</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.002243924885988235</v>
+        <v>0.000519459368661046</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.003620199859142303</v>
+        <v>0.0002121248544426635</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.004789122380316257</v>
+        <v>7.821789768058807e-05</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.001091418555006385</v>
+        <v>0.0002444699348416179</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.003132379613816738</v>
+        <v>4.266186806489713e-05</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.001823807135224342</v>
+        <v>0.0001255151291843504</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.002103499136865139</v>
+        <v>8.263136987807229e-05</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.0006268690340220928</v>
+        <v>0.0002631066599860787</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.0005384487449191511</v>
+        <v>0.0001561665121698752</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.001263647456653416</v>
+        <v>4.191726111457683e-05</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.0001019975898088887</v>
+        <v>1.408737080055289e-05</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.0009252465097233653</v>
+        <v>0.0001198632526211441</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.006645134184509516</v>
+        <v>0.0003925043565686792</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.0008048182353377342</v>
+        <v>0.0005071883788332343</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.0005708381650038064</v>
+        <v>6.46121843601577e-05</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.0003884608740918338</v>
+        <v>1.430868360330351e-05</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.001235618605278432</v>
+        <v>0.0005122270085848868</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.00204594642855227</v>
+        <v>0.000308712013065815</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.002255187835544348</v>
+        <v>0.0001356529392069206</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.003295211587101221</v>
+        <v>0.0003928309597540647</v>
       </c>
       <c r="DN5" t="n">
-        <v>9.014338138513267e-05</v>
+        <v>7.377962174359709e-05</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.005566614679992199</v>
+        <v>0.0001944709074450657</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.0003380967536941171</v>
+        <v>0.0002654303098097444</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.0003229972498957068</v>
+        <v>0.0004925079992972314</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.0009343528654426336</v>
+        <v>0.0002070651389658451</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.0009825194720178843</v>
+        <v>0.0005691631231456995</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.001798387849703431</v>
+        <v>0.0003358086687512696</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.0003126822994090617</v>
+        <v>0.0002224878844572231</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.002311671618372202</v>
+        <v>6.192425644258037e-05</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.001472548581659794</v>
+        <v>0.000236162799410522</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.001949262106791139</v>
+        <v>9.887597116176039e-05</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.0003750608302652836</v>
+        <v>0.0001962236419785768</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.001258675940334797</v>
+        <v>0.0006533819250762463</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.001714871032163501</v>
+        <v>0.0001271653163712472</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.001585887395776808</v>
+        <v>0.0003021795128006488</v>
       </c>
       <c r="EC5" t="n">
-        <v>3.739098610822111e-05</v>
+        <v>0.0002441923716105521</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.002469914266839623</v>
+        <v>0.0005047758459113538</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.0006376525270752609</v>
+        <v>0.0002052104682661593</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.006955444347113371</v>
+        <v>0.0001447909162379801</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.002367026405408978</v>
+        <v>0.0002582301385700703</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.003166648326441646</v>
+        <v>5.780695119028678e-06</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.00250842166133225</v>
+        <v>2.070207119686529e-05</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.001084121991880238</v>
+        <v>0.0001870320847956464</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.002700913697481155</v>
+        <v>0.0002144693717127666</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.00176264182664454</v>
+        <v>0.0002440103562548757</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.002417906885966659</v>
+        <v>6.280872912611812e-05</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.002187441335991025</v>
+        <v>7.062698568915948e-05</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.0009761345572769642</v>
+        <v>5.760994827141985e-05</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.0002963958249893039</v>
+        <v>0.0001854629081208259</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.001069237478077412</v>
+        <v>0.0002116493415087461</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.002023161854594946</v>
+        <v>0.0001207240275107324</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.002745640464127064</v>
+        <v>0.000451684114523232</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.003019772935658693</v>
+        <v>0.0001284317258978263</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.002177852671593428</v>
+        <v>8.155331306625158e-05</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.000691934721544385</v>
+        <v>0.0003294408670626581</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.002220883499830961</v>
+        <v>4.353113763500005e-05</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.004804437980055809</v>
+        <v>5.553531082114205e-05</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.0007098859641700983</v>
+        <v>0.0002932226634584367</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.003446807153522968</v>
+        <v>4.280065695638768e-06</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.002053047297522426</v>
+        <v>0.0001036132598528638</v>
       </c>
       <c r="FB5" t="n">
-        <v>2.15102918446064e-05</v>
+        <v>1.526812047814019e-05</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.0002251840778626502</v>
+        <v>0.0002246401272714138</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.0006688421126455069</v>
+        <v>0.000211512902751565</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.001471775583922863</v>
+        <v>4.031837306683883e-06</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.000537254789378494</v>
+        <v>2.085640699078795e-05</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.003398381406441331</v>
+        <v>6.292364560067654e-05</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.002809000201523304</v>
+        <v>5.601976590696722e-05</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.002182916272431612</v>
+        <v>0.000129214909975417</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.004364375490695238</v>
+        <v>0.0004078516503795981</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.002020768821239471</v>
+        <v>0.000154285051394254</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.001530802110210061</v>
+        <v>1.798495213733986e-05</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.002609374234452844</v>
+        <v>0.0003459284198470414</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.003797141835093498</v>
+        <v>0.0001814716670196503</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.002486053155735135</v>
+        <v>6.836472311988473e-05</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.002561441622674465</v>
+        <v>0.0001334823900833726</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.009718131273984909</v>
+        <v>0.0007974430336616933</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.0008086904417723417</v>
+        <v>0.0002043439453700557</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.003517742734402418</v>
+        <v>0.0002523029106669128</v>
       </c>
       <c r="FT5" t="n">
-        <v>3.112433478236198e-05</v>
+        <v>0.0003475053235888481</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.001976180355995893</v>
+        <v>0.0002885283902287483</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.001584643963724375</v>
+        <v>0.0006564304349012673</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.000164628800121136</v>
+        <v>0.000287065573502332</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.002178451977670193</v>
+        <v>6.259203655645251e-05</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.0001542386889923364</v>
+        <v>0.000213380204513669</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.005350938998162746</v>
+        <v>0.0002120791468769312</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.0005376185290515423</v>
+        <v>0.0004126620478928089</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.006241673603653908</v>
+        <v>0.0001845699007390067</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.0008614002726972103</v>
+        <v>8.644982881378382e-05</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.004089470487087965</v>
+        <v>7.836417353246361e-05</v>
       </c>
       <c r="GE5" t="n">
-        <v>8.629780495539308e-05</v>
+        <v>6.011711957398802e-05</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.003145759226754308</v>
+        <v>8.279685971501749e-06</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.001853197114542127</v>
+        <v>0.0001202253915835172</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.197500616312027</v>
+        <v>0.0008056351216509938</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0288222711533308</v>
+        <v>0.03782788664102554</v>
       </c>
       <c r="C6" t="n">
-        <v>0.168537363409996</v>
+        <v>0.002771539147943258</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06901469826698303</v>
+        <v>0.01760590076446533</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02515365928411484</v>
+        <v>0.008760273456573486</v>
       </c>
       <c r="F6" t="n">
-        <v>0.006315987091511488</v>
+        <v>0.03780140727758408</v>
       </c>
       <c r="G6" t="n">
-        <v>0.004630427807569504</v>
+        <v>0.002824675757437944</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03686109185218811</v>
+        <v>0.01412805542349815</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05569172650575638</v>
+        <v>0.001853718305937946</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2061431109905243</v>
+        <v>0.005563056096434593</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02032725512981415</v>
+        <v>0.0349176824092865</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1797494143247604</v>
+        <v>0.002012305427342653</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04383068531751633</v>
+        <v>0.01753167808055878</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1035319864749908</v>
+        <v>0.004228799138218164</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002876502461731434</v>
+        <v>0.03629514202475548</v>
       </c>
       <c r="P6" t="n">
-        <v>0.02735905162990093</v>
+        <v>0.004992226604372263</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.02807858400046825</v>
+        <v>0.005407496355473995</v>
       </c>
       <c r="R6" t="n">
-        <v>0.08359604328870773</v>
+        <v>0.001111721503548324</v>
       </c>
       <c r="S6" t="n">
-        <v>0.004019768908619881</v>
+        <v>0.003289615502581</v>
       </c>
       <c r="T6" t="n">
-        <v>0.05153292044997215</v>
+        <v>0.005296734161674976</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01508599147200584</v>
+        <v>1.928815618157387e-05</v>
       </c>
       <c r="V6" t="n">
-        <v>0.004689599853008986</v>
+        <v>0.001067849225364625</v>
       </c>
       <c r="W6" t="n">
-        <v>0.03679356724023819</v>
+        <v>0.0001794028066797182</v>
       </c>
       <c r="X6" t="n">
-        <v>0.01196444872766733</v>
+        <v>0.0003801738785114139</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.006700014695525169</v>
+        <v>0.002535415114834905</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.05524076521396637</v>
+        <v>0.00260158721357584</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.01030676253139973</v>
+        <v>0.003799139289185405</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.009575879201292992</v>
+        <v>0.0001060478389263153</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.01387628354132175</v>
+        <v>0.003661960363388062</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.005857588723301888</v>
+        <v>0.003296101931482553</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.007547640241682529</v>
+        <v>0.005608696490526199</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.002547408454120159</v>
+        <v>0.001632378902286291</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.01698187924921513</v>
+        <v>0.001409253338351846</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.01532041467726231</v>
+        <v>0.001992838922888041</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.04754672199487686</v>
+        <v>0.00285981991328299</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.03181919828057289</v>
+        <v>0.0003951219841837883</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.03557981923222542</v>
+        <v>0.002324223984032869</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.03232651948928833</v>
+        <v>0.007760464213788509</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.02164114266633987</v>
+        <v>0.001514512696303427</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.02601076662540436</v>
+        <v>0.0008133462397381663</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.01516397297382355</v>
+        <v>0.00310101080685854</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.03289350122213364</v>
+        <v>0.005281271412968636</v>
       </c>
       <c r="AQ6" t="n">
-        <v>5.507073365151882e-05</v>
+        <v>0.002398276934400201</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.005220206454396248</v>
+        <v>0.001364094205200672</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.006830004509538412</v>
+        <v>0.002887685550376773</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.07990690320730209</v>
+        <v>0.006094004027545452</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.02471694350242615</v>
+        <v>0.02879816479980946</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.1064054742455482</v>
+        <v>0.003655384294688702</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.006207901053130627</v>
+        <v>0.004411502275615931</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.03589394316077232</v>
+        <v>0.002068104688078165</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.03530768677592278</v>
+        <v>0.01559801772236824</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.03014705330133438</v>
+        <v>0.005446299910545349</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.0388435497879982</v>
+        <v>0.002767134457826614</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.005049827508628368</v>
+        <v>0.004226378165185452</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.04026620462536812</v>
+        <v>0.0029797931201756</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.01465671882033348</v>
+        <v>0.004140247125178576</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.04110127687454224</v>
+        <v>0.009570700116455555</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.006262235809117556</v>
+        <v>0.002919022459536791</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.01968943513929844</v>
+        <v>0.01402500458061695</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.02732550166547298</v>
+        <v>0.015675975009799</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.002488446887582541</v>
+        <v>0.005379225593060255</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.04209117591381073</v>
+        <v>0.002051201183348894</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.00738713052123785</v>
+        <v>0.001801134436391294</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.01846766285598278</v>
+        <v>0.0006104522035457194</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.009620918892323971</v>
+        <v>0.003646966069936752</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.03828522562980652</v>
+        <v>0.001295595429837704</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.02313980646431446</v>
+        <v>0.005066285375505686</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.08256030827760696</v>
+        <v>0.004346239846199751</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0.01738505437970161</v>
+        <v>0.0002968335465993732</v>
       </c>
       <c r="BR6" t="n">
-        <v>0.02399422228336334</v>
+        <v>0.004292889963835478</v>
       </c>
       <c r="BS6" t="n">
-        <v>0.01791937649250031</v>
+        <v>0.0009349253959953785</v>
       </c>
       <c r="BT6" t="n">
-        <v>0.004846644122153521</v>
+        <v>0.001298046088777483</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.07776670157909393</v>
+        <v>0.004214812535792589</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.009893020614981651</v>
+        <v>0.0139039158821106</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.042800672352314</v>
+        <v>0.001443522982299328</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.0535486564040184</v>
+        <v>0.004450342617928982</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.01186896860599518</v>
+        <v>0.0007731475052423775</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0.03583513200283051</v>
+        <v>0.006640238221734762</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.02114629186689854</v>
+        <v>0.002123465528711677</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.01761781796813011</v>
+        <v>0.003642424941062927</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.006515061482787132</v>
+        <v>0.003421100554987788</v>
       </c>
       <c r="CD6" t="n">
-        <v>0.03937882930040359</v>
+        <v>0.0002218984009232372</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.0395202673971653</v>
+        <v>0.006578810978680849</v>
       </c>
       <c r="CF6" t="n">
-        <v>0.03363834694027901</v>
+        <v>0.002787020057439804</v>
       </c>
       <c r="CG6" t="n">
-        <v>0.01208376232534647</v>
+        <v>0.003986253868788481</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.01145839504897594</v>
+        <v>0.0005117855034768581</v>
       </c>
       <c r="CI6" t="n">
-        <v>0.0007750880322419107</v>
+        <v>0.006245820783078671</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0.003746871836483479</v>
+        <v>0.003401679918169975</v>
       </c>
       <c r="CK6" t="n">
-        <v>0.01352351903915405</v>
+        <v>0.001665729563683271</v>
       </c>
       <c r="CL6" t="n">
-        <v>0.006285893265157938</v>
+        <v>0.002225792966783047</v>
       </c>
       <c r="CM6" t="n">
-        <v>0.003566092113032937</v>
+        <v>0.005000372417271137</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.0403951108455658</v>
+        <v>0.001105406903661788</v>
       </c>
       <c r="CO6" t="n">
-        <v>0.002630208153277636</v>
+        <v>0.0001663815055508167</v>
       </c>
       <c r="CP6" t="n">
-        <v>0.002258687512949109</v>
+        <v>0.003052203450351954</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.05369068309664726</v>
+        <v>0.00238599837757647</v>
       </c>
       <c r="CR6" t="n">
-        <v>0.005741120781749487</v>
+        <v>0.0007347865612246096</v>
       </c>
       <c r="CS6" t="n">
-        <v>0.02991664037108421</v>
+        <v>0.004800355061888695</v>
       </c>
       <c r="CT6" t="n">
-        <v>0.03026332147419453</v>
+        <v>0.008304890245199203</v>
       </c>
       <c r="CU6" t="n">
-        <v>0.05021094158291817</v>
+        <v>0.0006296992069110274</v>
       </c>
       <c r="CV6" t="n">
-        <v>0.03261367604136467</v>
+        <v>0.0002657244622241706</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.03167486935853958</v>
+        <v>0.005066701676696539</v>
       </c>
       <c r="CX6" t="n">
-        <v>0.03118186816573143</v>
+        <v>0.002659605583176017</v>
       </c>
       <c r="CY6" t="n">
-        <v>0.01198469661176205</v>
+        <v>0.005288973450660706</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.01458495669066906</v>
+        <v>0.0003503509797155857</v>
       </c>
       <c r="DA6" t="n">
-        <v>0.004148048814386129</v>
+        <v>0.006756774615496397</v>
       </c>
       <c r="DB6" t="n">
-        <v>0.008056376129388809</v>
+        <v>0.002988272346556187</v>
       </c>
       <c r="DC6" t="n">
-        <v>0.006966728251427412</v>
+        <v>0.002883061766624451</v>
       </c>
       <c r="DD6" t="n">
-        <v>0.005558928940445185</v>
+        <v>0.0008762517245486379</v>
       </c>
       <c r="DE6" t="n">
-        <v>0.02091432549059391</v>
+        <v>0.00194743718020618</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.1036002635955811</v>
+        <v>0.006205064710229635</v>
       </c>
       <c r="DG6" t="n">
-        <v>0.04828521981835365</v>
+        <v>0.001526425592601299</v>
       </c>
       <c r="DH6" t="n">
-        <v>0.0109913544729352</v>
+        <v>0.008042983710765839</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.01612533070147038</v>
+        <v>0.006716957781463861</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0.002559564542025328</v>
+        <v>0.003130321158096194</v>
       </c>
       <c r="DK6" t="n">
-        <v>0.01515419315546751</v>
+        <v>0.004410271998494864</v>
       </c>
       <c r="DL6" t="n">
-        <v>0.03780537471175194</v>
+        <v>0.007835135795176029</v>
       </c>
       <c r="DM6" t="n">
-        <v>0.03744519501924515</v>
+        <v>0.004294951912015676</v>
       </c>
       <c r="DN6" t="n">
-        <v>0.00406661769375205</v>
+        <v>0.0008835808839648962</v>
       </c>
       <c r="DO6" t="n">
-        <v>0.05054387077689171</v>
+        <v>0.001047700876370072</v>
       </c>
       <c r="DP6" t="n">
-        <v>0.005431468598544598</v>
+        <v>0.001128823263570666</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0.0066987294703722</v>
+        <v>0.00628142524510622</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.003107350319623947</v>
+        <v>0.001575010130181909</v>
       </c>
       <c r="DS6" t="n">
-        <v>0.01601721160113811</v>
+        <v>0.00476735457777977</v>
       </c>
       <c r="DT6" t="n">
-        <v>0.02891964837908745</v>
+        <v>0.003682256443426013</v>
       </c>
       <c r="DU6" t="n">
-        <v>0.006545338314026594</v>
+        <v>0.0006430647918023169</v>
       </c>
       <c r="DV6" t="n">
-        <v>0.02255340293049812</v>
+        <v>0.003273643320426345</v>
       </c>
       <c r="DW6" t="n">
-        <v>0.01018116250634193</v>
+        <v>0.0007864271756261587</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.002893025986850262</v>
+        <v>0.003397679654881358</v>
       </c>
       <c r="DY6" t="n">
-        <v>0.004696124698966742</v>
+        <v>0.004058360122144222</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.006621281616389751</v>
+        <v>0.003750586183741689</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.01661567948758602</v>
+        <v>0.001128111965954304</v>
       </c>
       <c r="EB6" t="n">
-        <v>0.01299883984029293</v>
+        <v>0.001325385295785964</v>
       </c>
       <c r="EC6" t="n">
-        <v>0.005937218200415373</v>
+        <v>0.001140007050707936</v>
       </c>
       <c r="ED6" t="n">
-        <v>0.03904484212398529</v>
+        <v>0.001528984634205699</v>
       </c>
       <c r="EE6" t="n">
-        <v>0.01465987972915173</v>
+        <v>0.001618301728740335</v>
       </c>
       <c r="EF6" t="n">
-        <v>0.0688353106379509</v>
+        <v>0.003179119434207678</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.04008719325065613</v>
+        <v>0.005246887449175119</v>
       </c>
       <c r="EH6" t="n">
-        <v>0.0314343087375164</v>
+        <v>0.002409378532320261</v>
       </c>
       <c r="EI6" t="n">
-        <v>0.01821095496416092</v>
+        <v>0.00093794334679842</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.01366827264428139</v>
+        <v>0.002963659819215536</v>
       </c>
       <c r="EK6" t="n">
-        <v>0.0202009379863739</v>
+        <v>0.005948066711425781</v>
       </c>
       <c r="EL6" t="n">
-        <v>0.01187295001000166</v>
+        <v>0.004258354660123587</v>
       </c>
       <c r="EM6" t="n">
-        <v>0.02882758900523186</v>
+        <v>0.0006407997570931911</v>
       </c>
       <c r="EN6" t="n">
-        <v>0.007548089139163494</v>
+        <v>0.0005336962058208883</v>
       </c>
       <c r="EO6" t="n">
-        <v>0.008500557392835617</v>
+        <v>1.140055246651173e-05</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.03569048270583153</v>
+        <v>0.005010377150028944</v>
       </c>
       <c r="EQ6" t="n">
-        <v>0.01274540461599827</v>
+        <v>0.002698170952498913</v>
       </c>
       <c r="ER6" t="n">
-        <v>0.01712825335562229</v>
+        <v>0.002950357738882303</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.01414812635630369</v>
+        <v>0.0015084930928424</v>
       </c>
       <c r="ET6" t="n">
-        <v>0.04497074708342552</v>
+        <v>0.005619178060442209</v>
       </c>
       <c r="EU6" t="n">
-        <v>0.03535117581486702</v>
+        <v>0.002132616471499205</v>
       </c>
       <c r="EV6" t="n">
-        <v>0.01860078424215317</v>
+        <v>0.006123939529061317</v>
       </c>
       <c r="EW6" t="n">
-        <v>0.0290996041148901</v>
+        <v>0.001211230992339551</v>
       </c>
       <c r="EX6" t="n">
-        <v>0.03452117741107941</v>
+        <v>0.0008123940788209438</v>
       </c>
       <c r="EY6" t="n">
-        <v>0.02601063065230846</v>
+        <v>0.005683633964508772</v>
       </c>
       <c r="EZ6" t="n">
-        <v>0.03547916188836098</v>
+        <v>0.001271181856282055</v>
       </c>
       <c r="FA6" t="n">
-        <v>0.01576066762208939</v>
+        <v>0.00442678015679121</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.0002012628974625841</v>
+        <v>0.0003382646827958524</v>
       </c>
       <c r="FC6" t="n">
-        <v>0.007808475755155087</v>
+        <v>0.005968288518488407</v>
       </c>
       <c r="FD6" t="n">
-        <v>0.004586500115692616</v>
+        <v>0.004026977811008692</v>
       </c>
       <c r="FE6" t="n">
-        <v>0.009292026981711388</v>
+        <v>0.001542161917313933</v>
       </c>
       <c r="FF6" t="n">
-        <v>0.006239630281925201</v>
+        <v>0.002104101702570915</v>
       </c>
       <c r="FG6" t="n">
-        <v>0.03008206374943256</v>
+        <v>0.001158201834186912</v>
       </c>
       <c r="FH6" t="n">
-        <v>0.02689995802938938</v>
+        <v>0.000336506636813283</v>
       </c>
       <c r="FI6" t="n">
-        <v>0.02165541611611843</v>
+        <v>0.003586980514228344</v>
       </c>
       <c r="FJ6" t="n">
-        <v>0.04281444475054741</v>
+        <v>0.006959464401006699</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.01246174331754446</v>
+        <v>0.0002991069050040096</v>
       </c>
       <c r="FL6" t="n">
-        <v>0.01154009159654379</v>
+        <v>0.0003552607959136367</v>
       </c>
       <c r="FM6" t="n">
-        <v>0.01313215587288141</v>
+        <v>0.002255100989714265</v>
       </c>
       <c r="FN6" t="n">
-        <v>0.03814823925495148</v>
+        <v>0.001806959975510836</v>
       </c>
       <c r="FO6" t="n">
-        <v>0.02163716591894627</v>
+        <v>0.002081318292766809</v>
       </c>
       <c r="FP6" t="n">
-        <v>0.02183098904788494</v>
+        <v>0.001386850839480758</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0.1025210022926331</v>
+        <v>0.01207691989839077</v>
       </c>
       <c r="FR6" t="n">
-        <v>0.01295137405395508</v>
+        <v>0.0009183722431771457</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.01115925703197718</v>
+        <v>0.006645652465522289</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.02389520034193993</v>
+        <v>0.0008074963698163629</v>
       </c>
       <c r="FU6" t="n">
-        <v>0.02590193413197994</v>
+        <v>0.00394379161298275</v>
       </c>
       <c r="FV6" t="n">
-        <v>0.007794359233230352</v>
+        <v>0.002842324553057551</v>
       </c>
       <c r="FW6" t="n">
-        <v>0.02636357024312019</v>
+        <v>0.001720852684229612</v>
       </c>
       <c r="FX6" t="n">
-        <v>0.02953526936471462</v>
+        <v>0.0005839915247634053</v>
       </c>
       <c r="FY6" t="n">
-        <v>0.01147582195699215</v>
+        <v>0.004383702762424946</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0.02264237031340599</v>
+        <v>0.003390423487871885</v>
       </c>
       <c r="GA6" t="n">
-        <v>0.0006147287786006927</v>
+        <v>0.001571624190546572</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.01034589484333992</v>
+        <v>0.00224628415890038</v>
       </c>
       <c r="GC6" t="n">
-        <v>0.01446254551410675</v>
+        <v>0.004229470156133175</v>
       </c>
       <c r="GD6" t="n">
-        <v>0.04399564117193222</v>
+        <v>0.002181077608838677</v>
       </c>
       <c r="GE6" t="n">
-        <v>0.01756316795945168</v>
+        <v>0.009692296385765076</v>
       </c>
       <c r="GF6" t="n">
-        <v>0.03679109737277031</v>
+        <v>0.001925039803609252</v>
       </c>
       <c r="GG6" t="n">
-        <v>0.01059817895293236</v>
+        <v>0.00118295312859118</v>
       </c>
     </row>
     <row r="7">
@@ -4418,571 +4418,571 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.004963319282978773</v>
+        <v>0.00375024601817131</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0009967259829863906</v>
+        <v>0.09148687869310379</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003689527045935392</v>
+        <v>0.0004894413286820054</v>
       </c>
       <c r="D8" t="n">
-        <v>0.002341289073228836</v>
+        <v>0.02830124273896217</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001586452592164278</v>
+        <v>0.006206422112882137</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0003784684813581407</v>
+        <v>0.08881412446498871</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001170542323961854</v>
+        <v>0.0005242731422185898</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0009354105568490922</v>
+        <v>0.04982241988182068</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001416328828781843</v>
+        <v>0.01575643755495548</v>
       </c>
       <c r="J8" t="n">
-        <v>0.004929954651743174</v>
+        <v>0.001842917641624808</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0008030461031012237</v>
+        <v>0.08738499879837036</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004204706288874149</v>
+        <v>0.003153117373585701</v>
       </c>
       <c r="M8" t="n">
-        <v>0.001377779990434647</v>
+        <v>0.02962879836559296</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0003260844096075743</v>
+        <v>0.01381240040063858</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0002430299064144492</v>
+        <v>0.08430026471614838</v>
       </c>
       <c r="P8" t="n">
-        <v>0.001745751011185348</v>
+        <v>0.007422275841236115</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0007060568896122277</v>
+        <v>0.02042685076594353</v>
       </c>
       <c r="R8" t="n">
-        <v>0.002228095196187496</v>
+        <v>0.007601179182529449</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0002962565049529076</v>
+        <v>0.0001283388119190931</v>
       </c>
       <c r="T8" t="n">
-        <v>0.001335413078777492</v>
+        <v>0.002847305964678526</v>
       </c>
       <c r="U8" t="n">
-        <v>9.855750249698758e-05</v>
+        <v>0.005915500223636627</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0003105443611275405</v>
+        <v>0.004473702516406775</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0006181297940202057</v>
+        <v>0.008910590782761574</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0002407175343250856</v>
+        <v>0.01209759805351496</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0003460186708252877</v>
+        <v>0.005115433130413294</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.001012060325592756</v>
+        <v>0.002964063081890345</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.00055721215903759</v>
+        <v>0.007837334647774696</v>
       </c>
       <c r="AB8" t="n">
-        <v>5.307498213369399e-05</v>
+        <v>0.004215957596898079</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0002803925017360598</v>
+        <v>0.00960383377969265</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.0004859953769482672</v>
+        <v>0.01272660307586193</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.0003581900091376156</v>
+        <v>0.002951062051579356</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.0005301099154166877</v>
+        <v>0.0007755965925753117</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.0001549494481878355</v>
+        <v>0.004484427161514759</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.0003967100055888295</v>
+        <v>0.00694189639762044</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.001169439288787544</v>
+        <v>0.008068948984146118</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.001271983957849443</v>
+        <v>0.005273799877613783</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.0009533301345072687</v>
+        <v>0.008039994165301323</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.001963233342394233</v>
+        <v>0.01218121964484453</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.0002202186587965116</v>
+        <v>0.01178495958447456</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.001314414548687637</v>
+        <v>0.002126994542777538</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.0002161554293707013</v>
+        <v>0.009905962273478508</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.0003433020319789648</v>
+        <v>0.0144480150192976</v>
       </c>
       <c r="AQ8" t="n">
-        <v>3.436206316109747e-05</v>
+        <v>0.003796346019953489</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.0001730974763631821</v>
+        <v>0.009768973104655743</v>
       </c>
       <c r="AS8" t="n">
-        <v>4.330234150984325e-05</v>
+        <v>0.002029669005423784</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.002028062473982573</v>
+        <v>0.00804318580776453</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.001345499535091221</v>
+        <v>0.06681451201438904</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.002078654710203409</v>
+        <v>0.01798539236187935</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.0005236547440290451</v>
+        <v>0.009851288050413132</v>
       </c>
       <c r="AX8" t="n">
-        <v>1.947460987139493e-06</v>
+        <v>0.01734971255064011</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.001445941743440926</v>
+        <v>0.02756176143884659</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.0006431952933780849</v>
+        <v>0.008040281943976879</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.0007149106822907925</v>
+        <v>0.01375571452081203</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.0006571645499207079</v>
+        <v>0.001288731349632144</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.001064525917172432</v>
+        <v>0.006814251188188791</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.0003129233082290739</v>
+        <v>0.02305801585316658</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.001359438290819526</v>
+        <v>0.01644292101264</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.0003403556474950165</v>
+        <v>0.0004015519516542554</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.0004652549105230719</v>
+        <v>0.00397283211350441</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.0007149446755647659</v>
+        <v>0.03840088844299316</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.001039260881952941</v>
+        <v>0.007427354343235493</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.0009301860700361431</v>
+        <v>0.005156612955033779</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.0009086927748285234</v>
+        <v>0.01003153435885906</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.0006854632520116866</v>
+        <v>0.00707085058093071</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.0008182208985090256</v>
+        <v>0.001025006175041199</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.0007982727838680148</v>
+        <v>0.001275766175240278</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.0003100104513578117</v>
+        <v>0.0004006386734545231</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.001258884789422154</v>
+        <v>0.003325873520225286</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.0002692824928089976</v>
+        <v>0.0006085566710680723</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.000477246445370838</v>
+        <v>0.003421045141294599</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.0002528459008317441</v>
+        <v>0.004615071229636669</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.0001970125013031065</v>
+        <v>0.005850448273122311</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.001895223977044225</v>
+        <v>0.005934735760092735</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.0009088023798540235</v>
+        <v>0.03206705674529076</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.0007393945124931633</v>
+        <v>0.01119045820087194</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.001544440863654017</v>
+        <v>0.001439012354239821</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.001033060951158404</v>
+        <v>0.00792448315769434</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.0003606221580412239</v>
+        <v>0.01354040019214153</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.0003581437049433589</v>
+        <v>0.003897259477525949</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.0006816426757723093</v>
+        <v>0.007941404357552528</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.0004676050157286227</v>
+        <v>0.003145574126392603</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.001008668448776007</v>
+        <v>0.002246331190690398</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.00146942026913166</v>
+        <v>0.01301323156803846</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.0007213341305032372</v>
+        <v>0.001678036176599562</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.0002432630572002381</v>
+        <v>0.003800991922616959</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.0001679485139902681</v>
+        <v>0.0005826839478686452</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.000208526267670095</v>
+        <v>0.01620902679860592</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.0001425255904905498</v>
+        <v>0.005661061033606529</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.0003002196608576924</v>
+        <v>0.007405407726764679</v>
       </c>
       <c r="CL8" t="n">
-        <v>2.326453613932244e-05</v>
+        <v>0.002681230660527945</v>
       </c>
       <c r="CM8" t="n">
-        <v>1.692477962933481e-05</v>
+        <v>0.005048720166087151</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.001042007002979517</v>
+        <v>0.01066877972334623</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.0005096688983030617</v>
+        <v>0.00210886774584651</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.0001035916357068345</v>
+        <v>0.01141163520514965</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.0009780462132766843</v>
+        <v>0.006815590895712376</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.0001939211651915684</v>
+        <v>0.00786612369120121</v>
       </c>
       <c r="CS8" t="n">
-        <v>0.0007803417975082994</v>
+        <v>0.01275876816362143</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.0002217152796220034</v>
+        <v>0.02250845730304718</v>
       </c>
       <c r="CU8" t="n">
-        <v>0.0005872709443792701</v>
+        <v>0.008323264308273792</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.0008905593422241509</v>
+        <v>0.001172719872556627</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.001396268140524626</v>
+        <v>0.01240891497582197</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.0008732302230782807</v>
+        <v>0.0004870840348303318</v>
       </c>
       <c r="CY8" t="n">
-        <v>0.0001758538273861632</v>
+        <v>0.005906973965466022</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.0009265381959266961</v>
+        <v>0.001144767855294049</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.0001940375223057345</v>
+        <v>0.01779612526297569</v>
       </c>
       <c r="DB8" t="n">
-        <v>0.0001910883875098079</v>
+        <v>0.003809162881225348</v>
       </c>
       <c r="DC8" t="n">
-        <v>0.0001419256441295147</v>
+        <v>0.00983726792037487</v>
       </c>
       <c r="DD8" t="n">
-        <v>5.741201675846241e-05</v>
+        <v>0.0008731776615604758</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.0004006175440736115</v>
+        <v>0.00184824678581208</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.002742965240031481</v>
+        <v>0.005966709926724434</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.0006416194373741746</v>
+        <v>0.008562617003917694</v>
       </c>
       <c r="DH8" t="n">
-        <v>6.47901906631887e-05</v>
+        <v>0.02338405326008797</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.0002440367243252695</v>
+        <v>0.01566803641617298</v>
       </c>
       <c r="DJ8" t="n">
-        <v>7.368342630797997e-05</v>
+        <v>0.01272042468190193</v>
       </c>
       <c r="DK8" t="n">
-        <v>0.0004179136594757438</v>
+        <v>0.01007017027586699</v>
       </c>
       <c r="DL8" t="n">
-        <v>6.159694748930633e-06</v>
+        <v>0.01618912816047668</v>
       </c>
       <c r="DM8" t="n">
-        <v>0.0006557751912623644</v>
+        <v>0.01339731458574533</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.000266964256297797</v>
+        <v>0.006273376755416393</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.001526459585875273</v>
+        <v>0.001894312910735607</v>
       </c>
       <c r="DP8" t="n">
-        <v>0.0002677413867786527</v>
+        <v>0.0042215371504426</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0.0004614117788150907</v>
+        <v>0.004542337264865637</v>
       </c>
       <c r="DR8" t="n">
-        <v>9.252677409676835e-05</v>
+        <v>0.00147176266182214</v>
       </c>
       <c r="DS8" t="n">
-        <v>0.0002202086470788345</v>
+        <v>0.01048066094517708</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.0003650627913884819</v>
+        <v>0.00568688428029418</v>
       </c>
       <c r="DU8" t="n">
-        <v>0.0002009665186051279</v>
+        <v>0.000578812207095325</v>
       </c>
       <c r="DV8" t="n">
-        <v>0.0005171564989723265</v>
+        <v>0.0008509809849783778</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.0002993920061271638</v>
+        <v>0.005163968540728092</v>
       </c>
       <c r="DX8" t="n">
-        <v>0.0002307234681211412</v>
+        <v>0.005770547315478325</v>
       </c>
       <c r="DY8" t="n">
-        <v>7.048076076898724e-05</v>
+        <v>0.003495594020932913</v>
       </c>
       <c r="DZ8" t="n">
-        <v>6.396282697096467e-05</v>
+        <v>0.003831490874290466</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.00114237773232162</v>
+        <v>0.001189555274322629</v>
       </c>
       <c r="EB8" t="n">
-        <v>2.315940946573392e-05</v>
+        <v>0.005104738287627697</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.0001890062558231875</v>
+        <v>0.002393541159108281</v>
       </c>
       <c r="ED8" t="n">
-        <v>0.0008124909363687038</v>
+        <v>0.01011423300951719</v>
       </c>
       <c r="EE8" t="n">
-        <v>8.231697574956343e-05</v>
+        <v>0.009794640354812145</v>
       </c>
       <c r="EF8" t="n">
-        <v>0.00164066581055522</v>
+        <v>0.003805356100201607</v>
       </c>
       <c r="EG8" t="n">
-        <v>0.001295719295740128</v>
+        <v>0.01755840517580509</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.0007167475414462388</v>
+        <v>0.001038976712152362</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.0003428430645726621</v>
+        <v>0.006261146627366543</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.0002478360838722438</v>
+        <v>0.009761925786733627</v>
       </c>
       <c r="EK8" t="n">
-        <v>0.000828564865514636</v>
+        <v>0.0119011215865612</v>
       </c>
       <c r="EL8" t="n">
-        <v>0.0003887916100211442</v>
+        <v>0.003596539609134197</v>
       </c>
       <c r="EM8" t="n">
-        <v>0.0005099555128253996</v>
+        <v>0.0008825850673019886</v>
       </c>
       <c r="EN8" t="n">
-        <v>0.0004978053621016443</v>
+        <v>0.001166926929727197</v>
       </c>
       <c r="EO8" t="n">
-        <v>0.000149080908158794</v>
+        <v>0.002613351447507739</v>
       </c>
       <c r="EP8" t="n">
-        <v>0.001826053950935602</v>
+        <v>0.01139204576611519</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.000311128911562264</v>
+        <v>0.005802905187010765</v>
       </c>
       <c r="ER8" t="n">
-        <v>0.0005969362100586295</v>
+        <v>0.001970337936654687</v>
       </c>
       <c r="ES8" t="n">
-        <v>4.25682810600847e-06</v>
+        <v>0.006229629274457693</v>
       </c>
       <c r="ET8" t="n">
-        <v>0.0007305508479475975</v>
+        <v>0.01420234236866236</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.0002224064664915204</v>
+        <v>0.003528183326125145</v>
       </c>
       <c r="EV8" t="n">
-        <v>0.0003145808004774153</v>
+        <v>0.01963607408106327</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.000581712753046304</v>
+        <v>0.008049260824918747</v>
       </c>
       <c r="EX8" t="n">
-        <v>0.0008420842350460589</v>
+        <v>0.0006872960366308689</v>
       </c>
       <c r="EY8" t="n">
-        <v>0.001241953461430967</v>
+        <v>0.01087700482457876</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.0008847002172842622</v>
+        <v>0.001216045115143061</v>
       </c>
       <c r="FA8" t="n">
-        <v>0.0002270092081744224</v>
+        <v>0.003237822325900197</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.0006007954361848533</v>
+        <v>0.001215678639709949</v>
       </c>
       <c r="FC8" t="n">
-        <v>3.421855581109412e-07</v>
+        <v>0.01389708369970322</v>
       </c>
       <c r="FD8" t="n">
-        <v>0.0001757366408128291</v>
+        <v>0.004969707690179348</v>
       </c>
       <c r="FE8" t="n">
-        <v>0.0003040724841412157</v>
+        <v>0.007009110413491726</v>
       </c>
       <c r="FF8" t="n">
-        <v>8.868721488397568e-05</v>
+        <v>0.0006239037029445171</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.0009254454635083675</v>
+        <v>0.0002551475190557539</v>
       </c>
       <c r="FH8" t="n">
-        <v>0.0003822807921096683</v>
+        <v>0.005737762432545424</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.0006298973457887769</v>
+        <v>0.006876866333186626</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0.0008887531002983451</v>
+        <v>0.008031047880649567</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.0002221043105237186</v>
+        <v>0.00349160423502326</v>
       </c>
       <c r="FL8" t="n">
-        <v>0.0001549209264339879</v>
+        <v>0.007807574700564146</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.0008618191350251436</v>
+        <v>0.002658498007804155</v>
       </c>
       <c r="FN8" t="n">
-        <v>0.001330748200416565</v>
+        <v>0.007508710026741028</v>
       </c>
       <c r="FO8" t="n">
-        <v>0.0003752247430384159</v>
+        <v>0.001109537901356816</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.0004086265689693391</v>
+        <v>0.007159503176808357</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0.002452149754390121</v>
+        <v>0.02157898060977459</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.0001779188896762207</v>
+        <v>0.009264823980629444</v>
       </c>
       <c r="FS8" t="n">
-        <v>0.0005807788693346083</v>
+        <v>0.008754041977226734</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.0005617834976874292</v>
+        <v>0.002955268602818251</v>
       </c>
       <c r="FU8" t="n">
-        <v>0.0001010308042168617</v>
+        <v>0.001121076289564371</v>
       </c>
       <c r="FV8" t="n">
-        <v>0.0002250628604087979</v>
+        <v>0.005336338188499212</v>
       </c>
       <c r="FW8" t="n">
-        <v>0.0007562473765574396</v>
+        <v>0.0009258594363927841</v>
       </c>
       <c r="FX8" t="n">
-        <v>0.0005067075253464282</v>
+        <v>0.004723384045064449</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.0008855444611981511</v>
+        <v>0.005541567225009203</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0.0001399456959916279</v>
+        <v>0.01011181436479092</v>
       </c>
       <c r="GA8" t="n">
-        <v>0.0001587549195392057</v>
+        <v>0.005340956151485443</v>
       </c>
       <c r="GB8" t="n">
-        <v>0.000174587286892347</v>
+        <v>0.00712816696614027</v>
       </c>
       <c r="GC8" t="n">
-        <v>6.501039024442434e-05</v>
+        <v>0.01783839054405689</v>
       </c>
       <c r="GD8" t="n">
-        <v>0.0007250814232975245</v>
+        <v>0.009362827986478806</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.0005764889647252858</v>
+        <v>0.01270303782075644</v>
       </c>
       <c r="GF8" t="n">
-        <v>0.0009673732565715909</v>
+        <v>0.009127555415034294</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.0004806842480320483</v>
+        <v>0.008123601786792278</v>
       </c>
     </row>
     <row r="9">
@@ -5556,2278 +5556,2278 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.05258376896381378</v>
+        <v>0.02690247446298599</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01622406579554081</v>
+        <v>0.1686446964740753</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04900944977998734</v>
+        <v>0.04915449768304825</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01583684608340263</v>
+        <v>0.1062183603644371</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02734402939677238</v>
+        <v>0.183856800198555</v>
       </c>
       <c r="F10" t="n">
-        <v>0.009079329669475555</v>
+        <v>0.3414317071437836</v>
       </c>
       <c r="G10" t="n">
-        <v>0.004340444225817919</v>
+        <v>0.01417484879493713</v>
       </c>
       <c r="H10" t="n">
-        <v>0.008453910239040852</v>
+        <v>0.1389391422271729</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01510395109653473</v>
+        <v>0.05023272708058357</v>
       </c>
       <c r="J10" t="n">
-        <v>0.05426421388983727</v>
+        <v>0.005745272152125835</v>
       </c>
       <c r="K10" t="n">
-        <v>0.004839803092181683</v>
+        <v>0.1515150666236877</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04737585783004761</v>
+        <v>0.03311477228999138</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01387818902730942</v>
+        <v>0.07491686195135117</v>
       </c>
       <c r="N10" t="n">
-        <v>0.005277760326862335</v>
+        <v>0.02906701155006886</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001463086227886379</v>
+        <v>0.2462079674005508</v>
       </c>
       <c r="P10" t="n">
-        <v>0.002699905540794134</v>
+        <v>0.003614950925111771</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.008805246092379093</v>
+        <v>0.1452090293169022</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0169930811971426</v>
+        <v>0.0356903001666069</v>
       </c>
       <c r="S10" t="n">
-        <v>0.002464682795107365</v>
+        <v>0.002344586886465549</v>
       </c>
       <c r="T10" t="n">
-        <v>0.01379675790667534</v>
+        <v>0.004764600656926632</v>
       </c>
       <c r="U10" t="n">
-        <v>0.004877674859017134</v>
+        <v>0.02238180674612522</v>
       </c>
       <c r="V10" t="n">
-        <v>0.002242281567305326</v>
+        <v>0.09107705950737</v>
       </c>
       <c r="W10" t="n">
-        <v>0.002572399331256747</v>
+        <v>0.06378824263811111</v>
       </c>
       <c r="X10" t="n">
-        <v>0.001960813533514738</v>
+        <v>0.03550563752651215</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0007085078395903111</v>
+        <v>0.03309474140405655</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0008525978773832321</v>
+        <v>0.02936672419309616</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.001807692344300449</v>
+        <v>0.02468939125537872</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.001000622054561973</v>
+        <v>0.00441092811524868</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.01236352510750294</v>
+        <v>0.02347727864980698</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.003620806615799665</v>
+        <v>0.03165436536073685</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.01420019380748272</v>
+        <v>0.0001446879468858242</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.004335355013608932</v>
+        <v>0.01037800870835781</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.003521148348227143</v>
+        <v>0.01930292323231697</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.001239542383700609</v>
+        <v>0.06999681144952774</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.01105809397995472</v>
+        <v>0.01987390965223312</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.01204582862555981</v>
+        <v>0.02857067063450813</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.01089975144714117</v>
+        <v>0.008478001691401005</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.009024141356348991</v>
+        <v>0.02767923101782799</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.004949446767568588</v>
+        <v>0.007884407415986061</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.01029988564550877</v>
+        <v>0.02643218822777271</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.0001563983969390392</v>
+        <v>0.03859568014740944</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.002943876665085554</v>
+        <v>0.05728117749094963</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.0003703885013237596</v>
+        <v>0.01509988121688366</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.01452455017715693</v>
+        <v>0.04639619588851929</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.0008095875382423401</v>
+        <v>0.0300904419273138</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.02857304364442825</v>
+        <v>0.02628983557224274</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.01318484544754028</v>
+        <v>0.07283076643943787</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.0250161811709404</v>
+        <v>0.009351158514618874</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.0008598214481025934</v>
+        <v>0.04078046232461929</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.004210355691611767</v>
+        <v>0.1736070066690445</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.01335458550602198</v>
+        <v>0.2139889001846313</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.01822888292372227</v>
+        <v>0.01753287762403488</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.001947171520441771</v>
+        <v>0.05587676912546158</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.001961012603715062</v>
+        <v>0.05806340277194977</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.004272269085049629</v>
+        <v>0.01856708154082298</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.008650923147797585</v>
+        <v>0.05609942227602005</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.01097558438777924</v>
+        <v>0.05070548504590988</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.006999420002102852</v>
+        <v>0.06204383447766304</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.02113533392548561</v>
+        <v>0.08877463638782501</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.009563805535435677</v>
+        <v>0.06587450951337814</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.01208422519266605</v>
+        <v>0.02870800904929638</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.01087874639779329</v>
+        <v>0.03077114932239056</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.003871352411806583</v>
+        <v>0.02527011558413506</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.01038108952343464</v>
+        <v>0.0008584385504946113</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.001650579506531358</v>
+        <v>0.05259690061211586</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.007607619278132915</v>
+        <v>0.01615931466221809</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.0001652952050790191</v>
+        <v>0.02405624836683273</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.009917636401951313</v>
+        <v>0.01544687151908875</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.006640559993684292</v>
+        <v>0.01186286844313145</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.001611474435776472</v>
+        <v>0.06300405412912369</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.01380188204348087</v>
+        <v>0.05475852638483047</v>
       </c>
       <c r="BT10" t="n">
-        <v>0.002822273876518011</v>
+        <v>0.03457247465848923</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.02530020661652088</v>
+        <v>0.01056982390582561</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.0003662544768303633</v>
+        <v>0.05013888329267502</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.01572053879499435</v>
+        <v>0.003968924283981323</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.01040995959192514</v>
+        <v>0.04360981658101082</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.01465397421270609</v>
+        <v>0.07289533317089081</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.006311258766800165</v>
+        <v>0.07412190735340118</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.01014446560293436</v>
+        <v>0.0004928633570671082</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.005754640325903893</v>
+        <v>0.0598190650343895</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.00534268980845809</v>
+        <v>0.02028989791870117</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.01291191577911377</v>
+        <v>0.008869385346770287</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.006232869811356068</v>
+        <v>0.02354214899241924</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.007066998165100813</v>
+        <v>0.000794336199760437</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.002764088567346334</v>
+        <v>0.0278147179633379</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.0005703781498596072</v>
+        <v>0.01964504830539227</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.003476252313703299</v>
+        <v>0.05331768840551376</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0.0003104133065789938</v>
+        <v>0.008073383942246437</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.0007538311765529215</v>
+        <v>0.02159163169562817</v>
       </c>
       <c r="CL10" t="n">
-        <v>0.001159624429419637</v>
+        <v>0.00712252501398325</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.006987669505178928</v>
+        <v>0.01050814241170883</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.01101902034133673</v>
+        <v>0.02388465404510498</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.002387197222560644</v>
+        <v>0.01306367106735706</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.0004023723304271698</v>
+        <v>0.0414721667766571</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.005793347954750061</v>
+        <v>0.1366500854492188</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.002098801545798779</v>
+        <v>0.02210958302021027</v>
       </c>
       <c r="CS10" t="n">
-        <v>0.01227894611656666</v>
+        <v>0.03446544334292412</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.01559142488986254</v>
+        <v>0.02672111615538597</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.002206022385507822</v>
+        <v>0.05508602410554886</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.01220326591283083</v>
+        <v>0.01368087902665138</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.005239929538220167</v>
+        <v>0.01697703450918198</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.007496675476431847</v>
+        <v>0.004779903683811426</v>
       </c>
       <c r="CY10" t="n">
-        <v>0.0002797709312289953</v>
+        <v>0.02752741053700447</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.006652297452092171</v>
+        <v>0.03246766328811646</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.003479563631117344</v>
+        <v>0.0620216391980648</v>
       </c>
       <c r="DB10" t="n">
-        <v>0.0007568257860839367</v>
+        <v>0.002384371124207973</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.0006530105601996183</v>
+        <v>0.04007885605096817</v>
       </c>
       <c r="DD10" t="n">
-        <v>0.002861821791157126</v>
+        <v>0.01001789141446352</v>
       </c>
       <c r="DE10" t="n">
-        <v>0.005841199308633804</v>
+        <v>0.03418561443686485</v>
       </c>
       <c r="DF10" t="n">
-        <v>0.02469992637634277</v>
+        <v>0.1046738475561142</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.01056049764156342</v>
+        <v>0.01065952889621258</v>
       </c>
       <c r="DH10" t="n">
-        <v>0.01498905569314957</v>
+        <v>0.03783062100410461</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.005952131934463978</v>
+        <v>0.1674755662679672</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.002500996459275484</v>
+        <v>0.1002722680568695</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.002855171449482441</v>
+        <v>0.04242398589849472</v>
       </c>
       <c r="DL10" t="n">
-        <v>0.01026251539587975</v>
+        <v>0.09005659073591232</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.004262293688952923</v>
+        <v>0.1158613264560699</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.01169216074049473</v>
+        <v>0.01398939080536366</v>
       </c>
       <c r="DO10" t="n">
-        <v>0.007352628745138645</v>
+        <v>0.002683879807591438</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.004672556649893522</v>
+        <v>0.02124653570353985</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.0005118134431540966</v>
+        <v>0.06280948221683502</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.01023462507873774</v>
+        <v>0.005697654094547033</v>
       </c>
       <c r="DS10" t="n">
-        <v>0.002507118741050363</v>
+        <v>0.02091432176530361</v>
       </c>
       <c r="DT10" t="n">
-        <v>0.005933860782533884</v>
+        <v>0.008914812467992306</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.001425069640390575</v>
+        <v>0.04921478033065796</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.001950706820935011</v>
+        <v>0.0102539649233222</v>
       </c>
       <c r="DW10" t="n">
-        <v>0.0009479055879637599</v>
+        <v>0.0145431887358427</v>
       </c>
       <c r="DX10" t="n">
-        <v>0.0002961551072075963</v>
+        <v>0.00712935347110033</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.003816053504124284</v>
+        <v>0.01851977780461311</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.002266096882522106</v>
+        <v>0.03459853678941727</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.00565675925463438</v>
+        <v>0.04877007007598877</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.004727837629616261</v>
+        <v>0.03014891222119331</v>
       </c>
       <c r="EC10" t="n">
-        <v>0.003192452946677804</v>
+        <v>0.01344911567866802</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.01376685686409473</v>
+        <v>0.04335441440343857</v>
       </c>
       <c r="EE10" t="n">
-        <v>0.001442999579012394</v>
+        <v>0.05489079281687737</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.01330137904733419</v>
+        <v>0.02939289063215256</v>
       </c>
       <c r="EG10" t="n">
-        <v>0.002258634660393</v>
+        <v>0.01251463405787945</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.009488040581345558</v>
+        <v>0.02386038564145565</v>
       </c>
       <c r="EI10" t="n">
-        <v>0.007460493128746748</v>
+        <v>0.002883940935134888</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.002047059591859579</v>
+        <v>0.04363419488072395</v>
       </c>
       <c r="EK10" t="n">
-        <v>0.009913966059684753</v>
+        <v>0.06885450333356857</v>
       </c>
       <c r="EL10" t="n">
-        <v>0.006417477503418922</v>
+        <v>0.01279390603303909</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.00517365662381053</v>
+        <v>0.0161945428699255</v>
       </c>
       <c r="EN10" t="n">
-        <v>0.002941757207736373</v>
+        <v>0.01909788697957993</v>
       </c>
       <c r="EO10" t="n">
-        <v>0.0005933103966526687</v>
+        <v>0.01074324827641249</v>
       </c>
       <c r="EP10" t="n">
-        <v>0.01219713594764471</v>
+        <v>0.01569491252303123</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.00288979266770184</v>
+        <v>0.01310078892856836</v>
       </c>
       <c r="ER10" t="n">
-        <v>0.002481965813785791</v>
+        <v>0.01719035021960735</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.003069623373448849</v>
+        <v>0.008391933515667915</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.00404985249042511</v>
+        <v>0.01293455436825752</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.01339494995772839</v>
+        <v>0.001457367674447596</v>
       </c>
       <c r="EV10" t="n">
-        <v>0.008760698139667511</v>
+        <v>0.08087988197803497</v>
       </c>
       <c r="EW10" t="n">
-        <v>0.009908759035170078</v>
+        <v>0.0165114514529705</v>
       </c>
       <c r="EX10" t="n">
-        <v>0.01369776483625174</v>
+        <v>0.01430554315447807</v>
       </c>
       <c r="EY10" t="n">
-        <v>0.003249513451009989</v>
+        <v>0.01862087659537792</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.006493378896266222</v>
+        <v>0.01211665943264961</v>
       </c>
       <c r="FA10" t="n">
-        <v>0.0004394160932861269</v>
+        <v>0.03107773885130882</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.003355777822434902</v>
+        <v>0.03622050583362579</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.002667511580511928</v>
+        <v>0.05726661160588264</v>
       </c>
       <c r="FD10" t="n">
-        <v>0.001522255595773458</v>
+        <v>0.01273437775671482</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.002741237636655569</v>
+        <v>0.04401550441980362</v>
       </c>
       <c r="FF10" t="n">
-        <v>0.003455134574323893</v>
+        <v>0.003061781637370586</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.01138309855014086</v>
+        <v>0.009919805452227592</v>
       </c>
       <c r="FH10" t="n">
-        <v>0.01107923686504364</v>
+        <v>0.02531911805272102</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.007704439572989941</v>
+        <v>0.03652261197566986</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0.0147341676056385</v>
+        <v>0.03836160898208618</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.007235927041620016</v>
+        <v>0.0186653845012188</v>
       </c>
       <c r="FL10" t="n">
-        <v>0.01580029353499413</v>
+        <v>0.07466243207454681</v>
       </c>
       <c r="FM10" t="n">
-        <v>0.001843429170548916</v>
+        <v>0.002911780029535294</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.0008914457866922021</v>
+        <v>0.002776078879833221</v>
       </c>
       <c r="FO10" t="n">
-        <v>0.001745594665408134</v>
+        <v>0.01716614328324795</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.008546194061636925</v>
+        <v>0.008522782474756241</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0.02275374345481396</v>
+        <v>0.02483631856739521</v>
       </c>
       <c r="FR10" t="n">
-        <v>0.003452643286436796</v>
+        <v>0.02042924053966999</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.02858388423919678</v>
+        <v>0.01277043577283621</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.011222243309021</v>
+        <v>0.1413556188344955</v>
       </c>
       <c r="FU10" t="n">
-        <v>0.005821875762194395</v>
+        <v>0.07555630803108215</v>
       </c>
       <c r="FV10" t="n">
-        <v>0.007950319908559322</v>
+        <v>0.06294478476047516</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.003342131618410349</v>
+        <v>0.03612536191940308</v>
       </c>
       <c r="FX10" t="n">
-        <v>0.002081326441839337</v>
+        <v>0.02229710854589939</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.003111839294433594</v>
+        <v>0.0138868996873498</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0.001320194569416344</v>
+        <v>0.003175979014486074</v>
       </c>
       <c r="GA10" t="n">
-        <v>0.00548259261995554</v>
+        <v>0.02272190526127815</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.003588808933272958</v>
+        <v>0.005739068612456322</v>
       </c>
       <c r="GC10" t="n">
-        <v>0.02001211978495121</v>
+        <v>0.1009225770831108</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.002173349261283875</v>
+        <v>0.02212527394294739</v>
       </c>
       <c r="GE10" t="n">
-        <v>0.001635837950743735</v>
+        <v>0.05161022767424583</v>
       </c>
       <c r="GF10" t="n">
-        <v>0.007729853969067335</v>
+        <v>0.03811289742588997</v>
       </c>
       <c r="GG10" t="n">
-        <v>0.004454643465578556</v>
+        <v>0.01128147169947624</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.002901172498241067</v>
+        <v>1.51459807966603e-05</v>
       </c>
       <c r="B11" t="n">
-        <v>8.986421016743407e-05</v>
+        <v>0.0001700544089544564</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01529304031282663</v>
+        <v>1.201601025968557e-05</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001542255282402039</v>
+        <v>5.088582474854775e-05</v>
       </c>
       <c r="E11" t="n">
-        <v>0.003829684341326356</v>
+        <v>5.767854418081697e-06</v>
       </c>
       <c r="F11" t="n">
-        <v>0.003868716536089778</v>
+        <v>0.0001041287541738711</v>
       </c>
       <c r="G11" t="n">
-        <v>0.001585270976647735</v>
+        <v>8.376808182219975e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>0.005635787732899189</v>
+        <v>5.706868250854313e-05</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0102092158049345</v>
+        <v>9.838602636591531e-06</v>
       </c>
       <c r="J11" t="n">
-        <v>0.00307647860608995</v>
+        <v>2.081903039652389e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002183360513299704</v>
+        <v>0.0001419392501702532</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0138874463737011</v>
+        <v>3.307864062662702e-06</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0005373675376176834</v>
+        <v>7.335875125136226e-05</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0006185190286487341</v>
+        <v>5.286173291096929e-06</v>
       </c>
       <c r="O11" t="n">
-        <v>0.004985875450074673</v>
+        <v>8.905927825253457e-05</v>
       </c>
       <c r="P11" t="n">
-        <v>0.000279450265225023</v>
+        <v>2.091643182211556e-05</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.004043122753500938</v>
+        <v>2.975095412693918e-05</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01030593924224377</v>
+        <v>2.847912128345342e-07</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0009100791648961604</v>
+        <v>9.607239917386323e-06</v>
       </c>
       <c r="T11" t="n">
-        <v>0.003592060878872871</v>
+        <v>1.649694968364201e-05</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0001616178196854889</v>
+        <v>3.104112238361267e-06</v>
       </c>
       <c r="V11" t="n">
-        <v>0.0008194708498194814</v>
+        <v>1.595183130120859e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>0.001284535159356892</v>
+        <v>2.745626989053562e-05</v>
       </c>
       <c r="X11" t="n">
-        <v>0.000601709121838212</v>
+        <v>2.491696250217501e-06</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.0003424717287998646</v>
+        <v>3.371160119058914e-06</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.001161933760158718</v>
+        <v>9.12837731448235e-06</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.001222650636918843</v>
+        <v>1.671573727435316e-06</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.0003201303188689053</v>
+        <v>1.856426024460234e-05</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.001355613581836224</v>
+        <v>3.080106762354262e-05</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.00146480044350028</v>
+        <v>1.530825829831883e-05</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.002860106294974685</v>
+        <v>1.44544701470295e-05</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.001942613977007568</v>
+        <v>1.666303433012217e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.001632351195439696</v>
+        <v>2.024777859332971e-05</v>
       </c>
       <c r="AH11" t="n">
-        <v>4.421814810484648e-05</v>
+        <v>1.857545157690765e-06</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.0007164618000388145</v>
+        <v>2.344333188375458e-05</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.002411513356491923</v>
+        <v>1.312199401581893e-06</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.0003205885295756161</v>
+        <v>2.161255724786315e-05</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.0001405664370395243</v>
+        <v>1.591828367963899e-05</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.003270289860665798</v>
+        <v>7.87212593422737e-06</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.0008576653781346977</v>
+        <v>6.834332452854142e-06</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.001218285178765655</v>
+        <v>2.127603920598631e-06</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.0005416423082351685</v>
+        <v>2.982184196298476e-05</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.0004253018414601684</v>
+        <v>1.160243664344307e-05</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.001313964952714741</v>
+        <v>1.841756056819577e-05</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.0007955534383654594</v>
+        <v>6.804810709581943e-06</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.001316574169322848</v>
+        <v>1.867395258159377e-05</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.000416362308897078</v>
+        <v>0.0001089293073164299</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.007572296541184187</v>
+        <v>8.543884177925065e-06</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.000415875343605876</v>
+        <v>2.300973028468434e-05</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.0005688951932825148</v>
+        <v>2.633363692439161e-05</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.001180622377432883</v>
+        <v>7.626115984749049e-05</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.001546287443488836</v>
+        <v>9.771008990355767e-06</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.002375956857576966</v>
+        <v>2.344997301406693e-05</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.005281066056340933</v>
+        <v>4.08855703426525e-06</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.0005257556331343949</v>
+        <v>6.759725692973007e-06</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.001698329346254468</v>
+        <v>4.59529364889022e-05</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.003511550836265087</v>
+        <v>3.292248948127963e-05</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.0005648355581797659</v>
+        <v>2.216496068285778e-05</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.00334076164290309</v>
+        <v>4.021189670311287e-05</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.003421718953177333</v>
+        <v>2.546355972299352e-05</v>
       </c>
       <c r="BI11" t="n">
-        <v>5.12533588334918e-05</v>
+        <v>1.343737039860571e-05</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.001526144682429731</v>
+        <v>1.05711387732299e-06</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.002122519770637155</v>
+        <v>1.027912912832107e-05</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.0006947126239538193</v>
+        <v>1.797442109818803e-06</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.00157206691801548</v>
+        <v>2.936151577159762e-05</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.001343398820608854</v>
+        <v>1.494999014539644e-05</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.0001797200529836118</v>
+        <v>1.685264214756899e-05</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.003287886269390583</v>
+        <v>9.810071787796915e-06</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.001650123507715762</v>
+        <v>3.491780717013171e-06</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.0008459498640149832</v>
+        <v>1.292753495363286e-05</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.001041508978232741</v>
+        <v>1.270518532692222e-05</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.0008990484639070928</v>
+        <v>3.920994458894711e-06</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.002464915392920375</v>
+        <v>1.786753091437276e-05</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.001240762532688677</v>
+        <v>5.893826892133802e-05</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.004864110611379147</v>
+        <v>1.20771228466765e-05</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.0006101630278863013</v>
+        <v>2.795059117488563e-07</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.003450216259807348</v>
+        <v>6.449799002439249e-06</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.001418705796822906</v>
+        <v>3.383531293366104e-05</v>
       </c>
       <c r="CA11" t="n">
-        <v>6.116452277638018e-05</v>
+        <v>6.16811666986905e-06</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.001380317960865796</v>
+        <v>1.765858178259805e-05</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.003478628816083074</v>
+        <v>9.131623301072977e-06</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.0008149773348122835</v>
+        <v>5.196911843086127e-06</v>
       </c>
       <c r="CE11" t="n">
-        <v>3.106603980995715e-05</v>
+        <v>2.894801218644716e-05</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.002701258054003119</v>
+        <v>1.145732039731229e-05</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.0001078473869711161</v>
+        <v>1.461332158214645e-05</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.0002373288152739406</v>
+        <v>7.94615061749937e-06</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.001203333958983421</v>
+        <v>1.158354280050844e-05</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0.0002369058784097433</v>
+        <v>9.158898137684446e-06</v>
       </c>
       <c r="CK11" t="n">
-        <v>0.001308152568526566</v>
+        <v>6.034187208570074e-06</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.001804402796551585</v>
+        <v>3.920112249033991e-06</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.001691596349701285</v>
+        <v>3.932448453269899e-05</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.0007468422409147024</v>
+        <v>2.807752935041208e-05</v>
       </c>
       <c r="CO11" t="n">
-        <v>9.013438830152154e-05</v>
+        <v>8.454140697722323e-06</v>
       </c>
       <c r="CP11" t="n">
-        <v>0.001582237309776247</v>
+        <v>1.350886759610148e-05</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.001140465028584003</v>
+        <v>1.013974906527437e-05</v>
       </c>
       <c r="CR11" t="n">
-        <v>9.133975254371762e-05</v>
+        <v>1.626388620934449e-05</v>
       </c>
       <c r="CS11" t="n">
-        <v>0.000307179638184607</v>
+        <v>9.41719099500915e-06</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.0003119111352134496</v>
+        <v>1.569463347550482e-05</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.000773404841311276</v>
+        <v>7.357773938565515e-06</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.0009219879866577685</v>
+        <v>5.003118076274404e-06</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.0004261414287611842</v>
+        <v>2.573238998593297e-05</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.002665255451574922</v>
+        <v>1.565513048262801e-05</v>
       </c>
       <c r="CY11" t="n">
-        <v>0.0001872042194008827</v>
+        <v>1.664567571424413e-05</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.0009020360885187984</v>
+        <v>7.701412869209889e-06</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.001522725913673639</v>
+        <v>1.291033004235942e-05</v>
       </c>
       <c r="DB11" t="n">
-        <v>0.0004476819012779742</v>
+        <v>5.860841611138312e-06</v>
       </c>
       <c r="DC11" t="n">
-        <v>0.001188826630823314</v>
+        <v>1.257481380889658e-05</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.00144720240496099</v>
+        <v>3.216350251022959e-06</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.001669798512011766</v>
+        <v>1.564259036967997e-05</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.0001777923898771405</v>
+        <v>2.721687087614555e-05</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.003309076419100165</v>
+        <v>4.48016835434828e-05</v>
       </c>
       <c r="DH11" t="n">
-        <v>0.001977792242541909</v>
+        <v>2.293452780577354e-05</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.001627173973247409</v>
+        <v>1.989163138205186e-05</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.005496417172253132</v>
+        <v>9.844718078966253e-06</v>
       </c>
       <c r="DK11" t="n">
-        <v>0.001788186142221093</v>
+        <v>2.396347190369852e-05</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.0005542440339922905</v>
+        <v>1.403611076966627e-05</v>
       </c>
       <c r="DM11" t="n">
-        <v>0.0001084781833924353</v>
+        <v>2.150788532162551e-05</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.0004387856461107731</v>
+        <v>4.200080184091348e-06</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.0004480715724639595</v>
+        <v>4.282879672246054e-06</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.0005287262029014528</v>
+        <v>6.845275947853224e-06</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0.0004825803334824741</v>
+        <v>1.574757152411621e-05</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.0002936976961791515</v>
+        <v>1.167740811069962e-05</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.0001592927874298766</v>
+        <v>8.143278137140442e-06</v>
       </c>
       <c r="DT11" t="n">
-        <v>0.0008383629610762</v>
+        <v>1.346079443464987e-05</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.002627404872328043</v>
+        <v>8.069310752034653e-06</v>
       </c>
       <c r="DV11" t="n">
-        <v>0.0002833250910043716</v>
+        <v>1.342740461041103e-06</v>
       </c>
       <c r="DW11" t="n">
-        <v>0.001897098263725638</v>
+        <v>4.703599188360386e-06</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.001364035531878471</v>
+        <v>1.513390634499956e-05</v>
       </c>
       <c r="DY11" t="n">
-        <v>0.0004885197849944234</v>
+        <v>2.528372533561196e-06</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.0008446514257229865</v>
+        <v>8.028175216168165e-06</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.001386953750625253</v>
+        <v>5.229861926636659e-06</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.0006589205004274845</v>
+        <v>3.813333478319691e-06</v>
       </c>
       <c r="EC11" t="n">
-        <v>0.0001627505262149498</v>
+        <v>9.378841241414193e-06</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.001272363471798599</v>
+        <v>1.554745267640101e-06</v>
       </c>
       <c r="EE11" t="n">
-        <v>0.002136113820597529</v>
+        <v>4.056697889609495e-06</v>
       </c>
       <c r="EF11" t="n">
-        <v>4.623449058271945e-05</v>
+        <v>9.154769031738397e-06</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.001723250839859247</v>
+        <v>2.176888119720388e-05</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.002914418699219823</v>
+        <v>2.194985245296266e-05</v>
       </c>
       <c r="EI11" t="n">
-        <v>0.0005574633833020926</v>
+        <v>1.311003506998532e-05</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.001513583119958639</v>
+        <v>1.191153842228232e-07</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.002462590578943491</v>
+        <v>1.240303481608862e-05</v>
       </c>
       <c r="EL11" t="n">
-        <v>0.0005462962435558438</v>
+        <v>1.077467186405556e-05</v>
       </c>
       <c r="EM11" t="n">
-        <v>0.000851589604280889</v>
+        <v>3.50114561342707e-07</v>
       </c>
       <c r="EN11" t="n">
-        <v>0.0002601500600576401</v>
+        <v>1.474817850066756e-06</v>
       </c>
       <c r="EO11" t="n">
-        <v>0.0008461614488624036</v>
+        <v>4.946860826748889e-06</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.000609491253271699</v>
+        <v>2.315966776222922e-05</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0.0004265125025995076</v>
+        <v>6.102955012465827e-06</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.000356910953996703</v>
+        <v>2.289296389790252e-05</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.0006192743312567472</v>
+        <v>5.726652943849331e-06</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.001245181891135871</v>
+        <v>5.506834895641077e-06</v>
       </c>
       <c r="EU11" t="n">
-        <v>0.0002809918951243162</v>
+        <v>1.298923871217994e-05</v>
       </c>
       <c r="EV11" t="n">
-        <v>4.075263859704137e-05</v>
+        <v>1.844301368691958e-05</v>
       </c>
       <c r="EW11" t="n">
-        <v>0.002519831992685795</v>
+        <v>5.10812515130965e-06</v>
       </c>
       <c r="EX11" t="n">
-        <v>0.001232146634720266</v>
+        <v>9.076079550141003e-06</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.000833610538393259</v>
+        <v>2.480171315255575e-05</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.002463009674102068</v>
+        <v>8.308426913572475e-06</v>
       </c>
       <c r="FA11" t="n">
-        <v>8.610633085481822e-05</v>
+        <v>1.517356031399686e-05</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.0005963509320281446</v>
+        <v>8.278238965431228e-06</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.0006059992010705173</v>
+        <v>1.176850400952389e-05</v>
       </c>
       <c r="FD11" t="n">
-        <v>0.0002539037086535245</v>
+        <v>1.076247826858889e-05</v>
       </c>
       <c r="FE11" t="n">
-        <v>0.0007323182071559131</v>
+        <v>6.619293344556354e-06</v>
       </c>
       <c r="FF11" t="n">
-        <v>0.002219465328380466</v>
+        <v>7.536001248809043e-06</v>
       </c>
       <c r="FG11" t="n">
-        <v>3.12586926156655e-05</v>
+        <v>2.898896582337329e-06</v>
       </c>
       <c r="FH11" t="n">
-        <v>1.751800300553441e-05</v>
+        <v>2.626964942464838e-06</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.00459054671227932</v>
+        <v>5.136819254403235e-06</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0.001751437550410628</v>
+        <v>3.557731179171242e-05</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.001418983098119497</v>
+        <v>6.047735041647684e-06</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.0006280655506998301</v>
+        <v>1.581782453285996e-05</v>
       </c>
       <c r="FM11" t="n">
-        <v>0.0001953410537680611</v>
+        <v>6.109883088356582e-06</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.001859638490714133</v>
+        <v>9.230956493411213e-06</v>
       </c>
       <c r="FO11" t="n">
-        <v>0.0005733820144087076</v>
+        <v>8.706084372533951e-06</v>
       </c>
       <c r="FP11" t="n">
-        <v>0.0008154812385328114</v>
+        <v>1.662692920945119e-05</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.003159232437610626</v>
+        <v>3.057152935070917e-05</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.001823777565732598</v>
+        <v>1.300495023315307e-05</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.001568315317854285</v>
+        <v>3.196889520040713e-05</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.002917266450822353</v>
+        <v>4.714133865491021e-06</v>
       </c>
       <c r="FU11" t="n">
-        <v>5.438024527393281e-05</v>
+        <v>6.953156116651371e-06</v>
       </c>
       <c r="FV11" t="n">
-        <v>3.768285387195647e-05</v>
+        <v>4.437056304595899e-07</v>
       </c>
       <c r="FW11" t="n">
-        <v>0.0002931990020442754</v>
+        <v>5.989353667246178e-06</v>
       </c>
       <c r="FX11" t="n">
-        <v>0.003607622813433409</v>
+        <v>7.449117219948675e-06</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.0010361970635131</v>
+        <v>2.036978366959374e-05</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.001196233555674553</v>
+        <v>1.20950262498809e-05</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.002822255715727806</v>
+        <v>8.021002940949984e-06</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.002959590405225754</v>
+        <v>1.56604471612809e-06</v>
       </c>
       <c r="GC11" t="n">
-        <v>0.002369897905737162</v>
+        <v>2.311144999112003e-05</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.001088060555048287</v>
+        <v>1.4407738490263e-05</v>
       </c>
       <c r="GE11" t="n">
-        <v>0.0007967309793457389</v>
+        <v>5.36162406206131e-05</v>
       </c>
       <c r="GF11" t="n">
-        <v>0.00253678485751152</v>
+        <v>1.009536845231196e-05</v>
       </c>
       <c r="GG11" t="n">
-        <v>0.00334274023771286</v>
+        <v>7.011029083514586e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.01157332584261894</v>
+        <v>0.0004223206196911633</v>
       </c>
       <c r="B12" t="n">
-        <v>0.001636735396459699</v>
+        <v>0.01160035841166973</v>
       </c>
       <c r="C12" t="n">
-        <v>0.009130555205047131</v>
+        <v>0.0006499832961708307</v>
       </c>
       <c r="D12" t="n">
-        <v>0.003834418719634414</v>
+        <v>0.004825339186936617</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001555386814288795</v>
+        <v>0.006149595603346825</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001740320352837443</v>
+        <v>0.004554139450192451</v>
       </c>
       <c r="G12" t="n">
-        <v>0.001944339368492365</v>
+        <v>0.0014787019463256</v>
       </c>
       <c r="H12" t="n">
-        <v>0.002336329082027078</v>
+        <v>4.777912545250729e-05</v>
       </c>
       <c r="I12" t="n">
-        <v>0.004231609869748354</v>
+        <v>0.001053624087944627</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01057249587029219</v>
+        <v>0.000404518999857828</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001741055049933493</v>
+        <v>0.009215713478624821</v>
       </c>
       <c r="L12" t="n">
-        <v>0.008952157571911812</v>
+        <v>0.0009496726561337709</v>
       </c>
       <c r="M12" t="n">
-        <v>0.002475968096405268</v>
+        <v>0.0006613538134843111</v>
       </c>
       <c r="N12" t="n">
-        <v>0.002184716053307056</v>
+        <v>0.003993990365415812</v>
       </c>
       <c r="O12" t="n">
-        <v>0.002309682779014111</v>
+        <v>0.002763382392004132</v>
       </c>
       <c r="P12" t="n">
-        <v>0.003080775262787938</v>
+        <v>0.00287441024556756</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.002138416282832623</v>
+        <v>0.001695675426162779</v>
       </c>
       <c r="R12" t="n">
-        <v>0.005377833265811205</v>
+        <v>0.0003212782612536103</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0005945881712250412</v>
+        <v>0.0002283094945596531</v>
       </c>
       <c r="T12" t="n">
-        <v>0.002762181684374809</v>
+        <v>0.0003294686903245747</v>
       </c>
       <c r="U12" t="n">
-        <v>2.967928594443947e-05</v>
+        <v>0.0001786208886187524</v>
       </c>
       <c r="V12" t="n">
-        <v>0.0003507584915496409</v>
+        <v>0.001787130255252123</v>
       </c>
       <c r="W12" t="n">
-        <v>0.002331573283299804</v>
+        <v>0.0003081509785261005</v>
       </c>
       <c r="X12" t="n">
-        <v>0.0006357262609526515</v>
+        <v>0.001055456814356148</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.0002143213932868093</v>
+        <v>0.001153791206888855</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.002267347648739815</v>
+        <v>0.0006269246223382652</v>
       </c>
       <c r="AA12" t="n">
-        <v>6.92925532348454e-05</v>
+        <v>0.001584307407028973</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.0001402884372510016</v>
+        <v>0.000364908657502383</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.0004829306271858513</v>
+        <v>0.0005096786771900952</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.0005607582279480994</v>
+        <v>0.001566324615851045</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.00149507203605026</v>
+        <v>0.00279945251531899</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.0002100743586197495</v>
+        <v>0.0008332019206136465</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.0003648124111350626</v>
+        <v>0.001249956316314638</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.001015323563478887</v>
+        <v>0.0001078245259122923</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.001990793738514185</v>
+        <v>0.001735693775117397</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.001532130176201463</v>
+        <v>0.0009787444723770022</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.002416731091216207</v>
+        <v>0.000340278260409832</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.002670799847692251</v>
+        <v>0.001769058872014284</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.001336913090199232</v>
+        <v>0.0006074659177102149</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.002118023112416267</v>
+        <v>0.0004976668278686702</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.001566391787491739</v>
+        <v>0.0001198829268105328</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.0007658624090254307</v>
+        <v>0.001441080356016755</v>
       </c>
       <c r="AQ12" t="n">
-        <v>4.909797280561179e-05</v>
+        <v>0.0003824252926278859</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.0002652548719197512</v>
+        <v>0.001106241601519287</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.0004787612706422806</v>
+        <v>0.0008707002853043377</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.005385404452681541</v>
+        <v>0.001536083174869418</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.002247708383947611</v>
+        <v>0.005453960504382849</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.005516832694411278</v>
+        <v>0.0001779614394763485</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.0004414068826008588</v>
+        <v>0.004700347781181335</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.0007554213516414165</v>
+        <v>0.004492169246077538</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.0007680717972107232</v>
+        <v>0.003003129502758384</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.001937660737894475</v>
+        <v>0.002030967269092798</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.004367019981145859</v>
+        <v>0.0009815329685807228</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.001294804620556533</v>
+        <v>0.001976698404178023</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.00273121427744627</v>
+        <v>0.001095821266062558</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.001404085662215948</v>
+        <v>0.002380908001214266</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.002400712110102177</v>
+        <v>0.001121497247368097</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.0004750002699438483</v>
+        <v>0.0006121742771938443</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.0009354078210890293</v>
+        <v>0.003755487035959959</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.001201711129397154</v>
+        <v>0.001408622600138187</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.001507042325101793</v>
+        <v>7.478281622752547e-05</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.002638987731188536</v>
+        <v>0.001874816021881998</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.001047281548380852</v>
+        <v>0.0009208099218085408</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.001203148742206395</v>
+        <v>0.0002014416240854189</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.0001833401911426336</v>
+        <v>0.0008239144808612764</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.001633153529837728</v>
+        <v>0.0009705058764666319</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.0002304420922882855</v>
+        <v>0.0005767678958363831</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.003103118622675538</v>
+        <v>0.002648659516125917</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.0008510333718731999</v>
+        <v>0.0008541335118934512</v>
       </c>
       <c r="BR12" t="n">
-        <v>4.247596370987594e-05</v>
+        <v>3.520370228216052e-05</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.0006346376030705869</v>
+        <v>0.001663848175667226</v>
       </c>
       <c r="BT12" t="n">
-        <v>0.0002542581642046571</v>
+        <v>0.0003149605181533843</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.004389001056551933</v>
+        <v>0.001362420036457479</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.0005671151448041201</v>
+        <v>0.00385712506249547</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.002244207542389631</v>
+        <v>0.0001791560207493603</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.001953520579263568</v>
+        <v>0.001982835587114096</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.00176268583163619</v>
+        <v>0.002018815372139215</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.001696905004791915</v>
+        <v>0.0006517710280604661</v>
       </c>
       <c r="CA12" t="n">
-        <v>2.08781857509166e-05</v>
+        <v>0.001018916605971754</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.002776043955236673</v>
+        <v>0.0004337157006375492</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.001114895683713257</v>
+        <v>0.001476173754781485</v>
       </c>
       <c r="CD12" t="n">
-        <v>0.002338450402021408</v>
+        <v>0.0003345420409459621</v>
       </c>
       <c r="CE12" t="n">
-        <v>0.001843225792981684</v>
+        <v>0.001206378452479839</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.001788671826943755</v>
+        <v>0.000391998328268528</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.0008185849292203784</v>
+        <v>0.00104657537303865</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.0001365533971693367</v>
+        <v>0.000242871610680595</v>
       </c>
       <c r="CI12" t="n">
-        <v>0.0007872672867961228</v>
+        <v>0.0007061115466058254</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0.0003339209943078458</v>
+        <v>3.251401358284056e-05</v>
       </c>
       <c r="CK12" t="n">
-        <v>2.651690738275647e-05</v>
+        <v>0.0002929486217908561</v>
       </c>
       <c r="CL12" t="n">
-        <v>0.0003671066951937973</v>
+        <v>0.001047324854880571</v>
       </c>
       <c r="CM12" t="n">
-        <v>0.000889690883923322</v>
+        <v>0.0001401895424351096</v>
       </c>
       <c r="CN12" t="n">
-        <v>0.00100046000443399</v>
+        <v>0.001584215206094086</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.0006046485505066812</v>
+        <v>0.0003255903138779104</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.0009243026725016534</v>
+        <v>0.002974007045850158</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.003438867162913084</v>
+        <v>0.0009558161254972219</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.0004516735498327762</v>
+        <v>0.002317665610462427</v>
       </c>
       <c r="CS12" t="n">
-        <v>0.00180747639387846</v>
+        <v>0.002977244090288877</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.0006981343030929565</v>
+        <v>0.001432217424735427</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.001351273735053837</v>
+        <v>0.000334048381773755</v>
       </c>
       <c r="CV12" t="n">
-        <v>0.002300486201420426</v>
+        <v>5.540868369280361e-05</v>
       </c>
       <c r="CW12" t="n">
-        <v>0.001432242337614298</v>
+        <v>0.001345907570794225</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.001863120938651264</v>
+        <v>0.0006244274554774165</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.0005013537011109293</v>
+        <v>0.001430190284736454</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.001369761535897851</v>
+        <v>0.0005099985864944756</v>
       </c>
       <c r="DA12" t="n">
-        <v>0.0007440597401000559</v>
+        <v>0.001285691861994565</v>
       </c>
       <c r="DB12" t="n">
-        <v>0.0002108531334670261</v>
+        <v>0.0003929357044398785</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.0004249268968123943</v>
+        <v>0.0004448109248187393</v>
       </c>
       <c r="DD12" t="n">
-        <v>0.0002491537015885115</v>
+        <v>0.0008578253909945488</v>
       </c>
       <c r="DE12" t="n">
-        <v>0.0005621380405500531</v>
+        <v>0.0005102570867165923</v>
       </c>
       <c r="DF12" t="n">
-        <v>0.005061041563749313</v>
+        <v>0.002722127130255103</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.001254783826880157</v>
+        <v>0.000943482737056911</v>
       </c>
       <c r="DH12" t="n">
-        <v>0.001245857682079077</v>
+        <v>0.006996933836489916</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.001151131349615753</v>
+        <v>0.004814473912119865</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0.001871423213742673</v>
+        <v>0.0003279551456216723</v>
       </c>
       <c r="DK12" t="n">
-        <v>0.0004603322595357895</v>
+        <v>0.002623461186885834</v>
       </c>
       <c r="DL12" t="n">
-        <v>0.0002716257004067302</v>
+        <v>0.003815325209870934</v>
       </c>
       <c r="DM12" t="n">
-        <v>0.0003114378778263927</v>
+        <v>0.0005091829225420952</v>
       </c>
       <c r="DN12" t="n">
-        <v>0.0001940595539053902</v>
+        <v>0.001492546056397259</v>
       </c>
       <c r="DO12" t="n">
-        <v>0.002769009675830603</v>
+        <v>0.001020149677060544</v>
       </c>
       <c r="DP12" t="n">
-        <v>0.0003965176292695105</v>
+        <v>0.00254571414552629</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.0001111288729589432</v>
+        <v>0.0006286570569500327</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.0004210041661281139</v>
+        <v>0.0007872374262660742</v>
       </c>
       <c r="DS12" t="n">
-        <v>0.0009978620801120996</v>
+        <v>0.0009636167669668794</v>
       </c>
       <c r="DT12" t="n">
-        <v>0.00100749998819083</v>
+        <v>0.000596493948251009</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.0004500248469412327</v>
+        <v>0.0006723471451550722</v>
       </c>
       <c r="DV12" t="n">
-        <v>0.0003927748184651136</v>
+        <v>0.001294857123866677</v>
       </c>
       <c r="DW12" t="n">
-        <v>0.0004458971379790455</v>
+        <v>0.0005351077998057008</v>
       </c>
       <c r="DX12" t="n">
-        <v>0.0008747342508286238</v>
+        <v>8.999752753879875e-05</v>
       </c>
       <c r="DY12" t="n">
-        <v>3.153106081299484e-05</v>
+        <v>0.001873909845016897</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.0003929685917682946</v>
+        <v>0.001201820094138384</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.002895046724006534</v>
+        <v>0.000149184896145016</v>
       </c>
       <c r="EB12" t="n">
-        <v>0.0009097178699448705</v>
+        <v>0.000817020598333329</v>
       </c>
       <c r="EC12" t="n">
-        <v>0.0002554280508775264</v>
+        <v>0.0004551748861558735</v>
       </c>
       <c r="ED12" t="n">
-        <v>0.001316211768426001</v>
+        <v>0.001131098833866417</v>
       </c>
       <c r="EE12" t="n">
-        <v>0.0002952757640741765</v>
+        <v>0.0008135361131280661</v>
       </c>
       <c r="EF12" t="n">
-        <v>0.003402036149054766</v>
+        <v>0.001109770266339183</v>
       </c>
       <c r="EG12" t="n">
-        <v>0.001988664735108614</v>
+        <v>0.0007791600655764341</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.001674350816756487</v>
+        <v>0.00111237436067313</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.0008304581861011684</v>
+        <v>0.0004365990753285587</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.001127722440287471</v>
+        <v>0.001553335576318204</v>
       </c>
       <c r="EK12" t="n">
-        <v>0.001552383764646947</v>
+        <v>0.001498680794611573</v>
       </c>
       <c r="EL12" t="n">
-        <v>0.0006951121031306684</v>
+        <v>5.595052789431065e-05</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.001364372321404517</v>
+        <v>0.0001129513839259744</v>
       </c>
       <c r="EN12" t="n">
-        <v>0.0007376819849014282</v>
+        <v>0.0003825320454780012</v>
       </c>
       <c r="EO12" t="n">
-        <v>0.0006429398199543357</v>
+        <v>0.000182576070073992</v>
       </c>
       <c r="EP12" t="n">
-        <v>0.001272930996492505</v>
+        <v>0.0001096982014132664</v>
       </c>
       <c r="EQ12" t="n">
-        <v>0.0006380049744620919</v>
+        <v>0.000308184971800074</v>
       </c>
       <c r="ER12" t="n">
-        <v>0.001223737373948097</v>
+        <v>0.0005315346643328667</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.001159245846793056</v>
+        <v>7.490946154575795e-05</v>
       </c>
       <c r="ET12" t="n">
-        <v>0.0008878984954208136</v>
+        <v>0.001965871080756187</v>
       </c>
       <c r="EU12" t="n">
-        <v>0.001457485486753285</v>
+        <v>0.0008279959438368678</v>
       </c>
       <c r="EV12" t="n">
-        <v>0.001218544552102685</v>
+        <v>0.001169095281511545</v>
       </c>
       <c r="EW12" t="n">
-        <v>0.0007967168348841369</v>
+        <v>0.0004144342383369803</v>
       </c>
       <c r="EX12" t="n">
-        <v>0.002386203501373529</v>
+        <v>0.0002215594431618229</v>
       </c>
       <c r="EY12" t="n">
-        <v>0.001230709021911025</v>
+        <v>0.001247781910933554</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.001961201429367065</v>
+        <v>6.285163544816896e-05</v>
       </c>
       <c r="FA12" t="n">
-        <v>0.0005415136110968888</v>
+        <v>0.001203415566124022</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.0005768705159425735</v>
+        <v>3.922556061297655e-05</v>
       </c>
       <c r="FC12" t="n">
-        <v>0.0001270471548195928</v>
+        <v>0.0009154790313914418</v>
       </c>
       <c r="FD12" t="n">
-        <v>0.0002289342955918983</v>
+        <v>0.0002543339505791664</v>
       </c>
       <c r="FE12" t="n">
-        <v>3.761734114959836e-05</v>
+        <v>0.0002801390655804425</v>
       </c>
       <c r="FF12" t="n">
-        <v>0.0004477992479223758</v>
+        <v>0.001122780260629952</v>
       </c>
       <c r="FG12" t="n">
-        <v>0.00201791524887085</v>
+        <v>0.000334064126946032</v>
       </c>
       <c r="FH12" t="n">
-        <v>0.001009845174849033</v>
+        <v>0.001692102407105267</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.001831720350310206</v>
+        <v>0.0004406615043990314</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0.002131838584318757</v>
+        <v>0.001949501456692815</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.0009956329595297575</v>
+        <v>0.0008935803198255599</v>
       </c>
       <c r="FL12" t="n">
-        <v>0.0007814510026946664</v>
+        <v>5.59859472559765e-06</v>
       </c>
       <c r="FM12" t="n">
-        <v>0.0003694824408739805</v>
+        <v>4.705216269940138e-05</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.00049368548206985</v>
+        <v>0.001377680222503841</v>
       </c>
       <c r="FO12" t="n">
-        <v>0.0004290951765142381</v>
+        <v>0.0003309461171738803</v>
       </c>
       <c r="FP12" t="n">
-        <v>8.059677202254534e-05</v>
+        <v>0.0001419280888512731</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0.004008681513369083</v>
+        <v>0.002596306847408414</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.0009806705638766289</v>
+        <v>0.0004236062814015895</v>
       </c>
       <c r="FS12" t="n">
-        <v>0.001847504056058824</v>
+        <v>0.002958928002044559</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.001258827745914459</v>
+        <v>0.002423906233161688</v>
       </c>
       <c r="FU12" t="n">
-        <v>0.0008813890162855387</v>
+        <v>0.0007295706309378147</v>
       </c>
       <c r="FV12" t="n">
-        <v>0.000508455908857286</v>
+        <v>0.000658889242913574</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.0007371411775238812</v>
+        <v>0.0002426625724183396</v>
       </c>
       <c r="FX12" t="n">
-        <v>0.0003028778592124581</v>
+        <v>3.196877878508531e-05</v>
       </c>
       <c r="FY12" t="n">
-        <v>0.001169139519333839</v>
+        <v>0.0002971923968289047</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0.001313824788667262</v>
+        <v>2.539058914408088e-05</v>
       </c>
       <c r="GA12" t="n">
-        <v>0.0003011264489032328</v>
+        <v>0.000491468992549926</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.002526532392948866</v>
+        <v>0.001880722353234887</v>
       </c>
       <c r="GC12" t="n">
-        <v>0.001050464459694922</v>
+        <v>0.003438549814745784</v>
       </c>
       <c r="GD12" t="n">
-        <v>0.001639768830500543</v>
+        <v>0.0006594194564968348</v>
       </c>
       <c r="GE12" t="n">
-        <v>4.517988418228924e-05</v>
+        <v>0.003043293720111251</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.0006136099109426141</v>
+        <v>0.0003143726498819888</v>
       </c>
       <c r="GG12" t="n">
-        <v>0.0004945325199514627</v>
+        <v>7.975644257385284e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.0121851023286581</v>
+        <v>0.02012011408805847</v>
       </c>
       <c r="B13" t="n">
-        <v>0.003453297074884176</v>
+        <v>0.2850244045257568</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01222486421465874</v>
+        <v>0.002078425139188766</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00329056940972805</v>
+        <v>0.145555391907692</v>
       </c>
       <c r="E13" t="n">
-        <v>0.004348793998360634</v>
+        <v>0.04121749103069305</v>
       </c>
       <c r="F13" t="n">
-        <v>0.001646857243031263</v>
+        <v>0.2227675765752792</v>
       </c>
       <c r="G13" t="n">
-        <v>0.002430631080642343</v>
+        <v>0.008585946634411812</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0019663714338094</v>
+        <v>0.100689634680748</v>
       </c>
       <c r="I13" t="n">
-        <v>0.005044056102633476</v>
+        <v>0.01301836408674717</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0118717523291707</v>
+        <v>0.05428391322493553</v>
       </c>
       <c r="K13" t="n">
-        <v>0.001820498611778021</v>
+        <v>0.2671616673469543</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01429728884249926</v>
+        <v>0.01096242386847734</v>
       </c>
       <c r="M13" t="n">
-        <v>3.734068013727665e-05</v>
+        <v>0.1025949493050575</v>
       </c>
       <c r="N13" t="n">
-        <v>3.275694325566292e-05</v>
+        <v>0.004678701981902122</v>
       </c>
       <c r="O13" t="n">
-        <v>0.001640414935536683</v>
+        <v>0.2115422189235687</v>
       </c>
       <c r="P13" t="n">
-        <v>0.003358517773449421</v>
+        <v>0.009061485528945923</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.001689303666353226</v>
+        <v>0.04106967523694038</v>
       </c>
       <c r="R13" t="n">
-        <v>0.005456443876028061</v>
+        <v>0.007997677661478519</v>
       </c>
       <c r="S13" t="n">
-        <v>0.000322942272759974</v>
+        <v>0.01367730274796486</v>
       </c>
       <c r="T13" t="n">
-        <v>0.001425466267392039</v>
+        <v>0.02207657694816589</v>
       </c>
       <c r="U13" t="n">
-        <v>0.001047878758981824</v>
+        <v>0.02566313371062279</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0006673334864899516</v>
+        <v>0.03804104402661324</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0002683677594177425</v>
+        <v>0.06662449985742569</v>
       </c>
       <c r="X13" t="n">
-        <v>0.001340567832812667</v>
+        <v>0.02402698621153831</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.001117931213229895</v>
+        <v>0.02144057862460613</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.001769851427525282</v>
+        <v>0.06557253003120422</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.0002563854795880616</v>
+        <v>0.04049178212881088</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.578751835040748e-06</v>
+        <v>0.003801222890615463</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.001674801111221313</v>
+        <v>0.01052378676831722</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.0002007738803513348</v>
+        <v>0.008578258566558361</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.001843612175434828</v>
+        <v>0.01404701825231314</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.224816802889109e-05</v>
+        <v>0.01587991043925285</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.0001263096055481583</v>
+        <v>0.01583826541900635</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.0007392769912257791</v>
+        <v>0.01842003501951694</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.003544837236404419</v>
+        <v>0.01682115346193314</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.002939831465482712</v>
+        <v>0.01491383649408817</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.002851734403520823</v>
+        <v>0.02362013980746269</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.002535511506721377</v>
+        <v>0.05347342044115067</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.0009681137162260711</v>
+        <v>0.00344878900796175</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.002423127181828022</v>
+        <v>0.01013870630413294</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.0005819879006594419</v>
+        <v>0.001384134870022535</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.0001912286388687789</v>
+        <v>0.03323651105165482</v>
       </c>
       <c r="AQ13" t="n">
-        <v>8.157813863363117e-05</v>
+        <v>0.004499703180044889</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.001472032861784101</v>
+        <v>0.01617760397493839</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.0003878925053868443</v>
+        <v>0.02977347187697887</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.005508648697286844</v>
+        <v>0.0422096773982048</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.001178897684440017</v>
+        <v>0.2055899500846863</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.005908561870455742</v>
+        <v>0.007280693389475346</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.002913275267928839</v>
+        <v>0.05830912292003632</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.001947562675923109</v>
+        <v>0.02409946545958519</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.003088909666985273</v>
+        <v>0.1192052811384201</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.0008449559099972248</v>
+        <v>0.03350852429866791</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.0007374840206466615</v>
+        <v>0.02713429369032383</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.001310285180807114</v>
+        <v>0.06882734596729279</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.001774808391928673</v>
+        <v>0.02535198256373405</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.0006906538037583232</v>
+        <v>0.04768793284893036</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.003202593652531505</v>
+        <v>0.05411762744188309</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.0004738312272820622</v>
+        <v>0.0008388389833271503</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.004273541271686554</v>
+        <v>0.03864405304193497</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.001998855965211987</v>
+        <v>0.06730114668607712</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.002326148562133312</v>
+        <v>0.02183896489441395</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.002071412745863199</v>
+        <v>0.02251439541578293</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.001203750725835562</v>
+        <v>0.0171725507825613</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.0008538367110304534</v>
+        <v>0.001569731160998344</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.001237898017279804</v>
+        <v>0.05944838374853134</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.001598826609551907</v>
+        <v>0.01237970683723688</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.0007970851729623973</v>
+        <v>0.01362448837608099</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.003232740797102451</v>
+        <v>0.003866259474307299</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.002411737106740475</v>
+        <v>0.004267726093530655</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.001493813935667276</v>
+        <v>0.02373876981437206</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.002566136419773102</v>
+        <v>0.01389953400939703</v>
       </c>
       <c r="BT13" t="n">
-        <v>8.105018059723079e-05</v>
+        <v>0.009481422603130341</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.005087567958980799</v>
+        <v>0.0182272233068943</v>
       </c>
       <c r="BV13" t="n">
-        <v>6.580573972314596e-05</v>
+        <v>0.1099521294236183</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.002258760388940573</v>
+        <v>0.02040176652371883</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.00111366796772927</v>
+        <v>0.0443357527256012</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.001270579174160957</v>
+        <v>0.02801880985498428</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.0003322072443552315</v>
+        <v>0.0500844419002533</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.001429412513971329</v>
+        <v>0.01493652630597353</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.0002780822687782347</v>
+        <v>0.0008676471188664436</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.002495127264410257</v>
+        <v>0.04571563005447388</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.002634505974128842</v>
+        <v>0.0004995991475880146</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.002846583491191268</v>
+        <v>0.03857552632689476</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.002626971341669559</v>
+        <v>0.02765863947570324</v>
       </c>
       <c r="CG13" t="n">
-        <v>8.117879769997671e-05</v>
+        <v>0.01838928461074829</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.0003826761967502534</v>
+        <v>0.007644719444215298</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.0007029043044894934</v>
+        <v>0.03389562293887138</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.0002644055057317019</v>
+        <v>0.01952532306313515</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.0004001420165877789</v>
+        <v>0.01511551812291145</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.0005744767258875072</v>
+        <v>0.02459416911005974</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.0006678752833977342</v>
+        <v>0.06178852915763855</v>
       </c>
       <c r="CN13" t="n">
-        <v>4.261851427145302e-05</v>
+        <v>0.01328051835298538</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.0007856683805584908</v>
+        <v>0.008678850717842579</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.0007062076474539936</v>
+        <v>0.04967227205634117</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.002106135943904519</v>
+        <v>0.004689502995461226</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.001628687488846481</v>
+        <v>0.007288048975169659</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.0006432579248212278</v>
+        <v>0.05686619505286217</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.0009244625689461827</v>
+        <v>0.05193591490387917</v>
       </c>
       <c r="CU13" t="n">
-        <v>9.052970563061535e-05</v>
+        <v>0.009712124243378639</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.002357513643801212</v>
+        <v>0.0007334635592997074</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.002618370344862342</v>
+        <v>0.03452875837683678</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.002734281588345766</v>
+        <v>0.02427602373063564</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.0001950316363945603</v>
+        <v>0.03427808359265327</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.001776874414645135</v>
+        <v>0.00995107926428318</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.0009073334513232112</v>
+        <v>0.03556176647543907</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.0001901898795040324</v>
+        <v>0.02049705572426319</v>
       </c>
       <c r="DC13" t="n">
-        <v>5.792788579128683e-05</v>
+        <v>0.02916504628956318</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.0004326847556512803</v>
+        <v>0.01369003672152758</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.0008430508314631879</v>
+        <v>0.007203693967312574</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.00558440200984478</v>
+        <v>0.01202398631721735</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.002916950965300202</v>
+        <v>0.009672028943896294</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.0002042861306108534</v>
+        <v>0.1061372011899948</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.002116475254297256</v>
+        <v>0.0562983863055706</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.002281783381476998</v>
+        <v>0.03624817356467247</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.002248618751764297</v>
+        <v>0.0001364094205200672</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.002329678274691105</v>
+        <v>0.04429293423891068</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.0001912286097649485</v>
+        <v>0.02632460743188858</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.0004487770493142307</v>
+        <v>0.005556501448154449</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.003141715656965971</v>
+        <v>0.001629330683499575</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.0009056096896529198</v>
+        <v>0.02258049696683884</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.0004535826155915856</v>
+        <v>0.001513317693024874</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.001210656366311014</v>
+        <v>0.006857573520392179</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.00136826594825834</v>
+        <v>0.005439832806587219</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.000183252603164874</v>
+        <v>0.003480215091258287</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.0002069689217023551</v>
+        <v>0.002919633407145739</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.0006945274071767926</v>
+        <v>0.0218654815107584</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.001762298634275794</v>
+        <v>0.0003018621355295181</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.0009417278924956918</v>
+        <v>0.0315123088657856</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.0006164610385894775</v>
+        <v>0.02455930411815643</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.001017823233269155</v>
+        <v>0.01143795065581799</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.0004145769635215402</v>
+        <v>0.002982127014547586</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.0001947524724528193</v>
+        <v>0.01746414788067341</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.0008301042253151536</v>
+        <v>0.001365927513688803</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.0009673467720858753</v>
+        <v>0.003541209734976292</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.0002548652701079845</v>
+        <v>0.01550949458032846</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.004048603586852551</v>
+        <v>0.01671620644629002</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.001564881531521678</v>
+        <v>0.04425378516316414</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.002951385453343391</v>
+        <v>0.01475823111832142</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.0007528765709139407</v>
+        <v>0.0104115316644311</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.0006181782810017467</v>
+        <v>0.003301613731309772</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.002388988621532917</v>
+        <v>0.02198619581758976</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.0002831495658028871</v>
+        <v>0.01954195089638233</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.002203698502853513</v>
+        <v>0.007582567632198334</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.000927368295378983</v>
+        <v>0.01353251654654741</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.0009168469114229083</v>
+        <v>0.001389629207551479</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.001203033374622464</v>
+        <v>0.01938406750559807</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.0007684174925088882</v>
+        <v>0.02470463328063488</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.0002301437198184431</v>
+        <v>0.02882634848356247</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.002585900481790304</v>
+        <v>0.01957403495907784</v>
       </c>
       <c r="ET13" t="n">
-        <v>0.0008363074157387018</v>
+        <v>0.03271585702896118</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.0004740175209008157</v>
+        <v>0.04984380304813385</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.0001135650090873241</v>
+        <v>0.0794650986790657</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.0004593718331307173</v>
+        <v>0.007533925585448742</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.002522495342418551</v>
+        <v>0.005941919982433319</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.002360368613153696</v>
+        <v>0.033052708953619</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.002765987301245332</v>
+        <v>0.02001914009451866</v>
       </c>
       <c r="FA13" t="n">
-        <v>9.555488213663921e-05</v>
+        <v>0.02255402505397797</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.001395152881741524</v>
+        <v>0.006923853419721127</v>
       </c>
       <c r="FC13" t="n">
-        <v>6.214171298779547e-05</v>
+        <v>0.02930133789777756</v>
       </c>
       <c r="FD13" t="n">
-        <v>0.000118363750516437</v>
+        <v>0.03489171713590622</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.0009493153775110841</v>
+        <v>0.02063172310590744</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.0006485695485025644</v>
+        <v>0.02581324055790901</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.001126951072365046</v>
+        <v>0.01207895949482918</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.001010488253086805</v>
+        <v>0.01099297124892473</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.003060620278120041</v>
+        <v>0.02396895363926888</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.002611221047118306</v>
+        <v>0.03954622521996498</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.0003297714283689857</v>
+        <v>0.008569457568228245</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.00182337942533195</v>
+        <v>0.0190498735755682</v>
       </c>
       <c r="FM13" t="n">
-        <v>1.862658973550424e-05</v>
+        <v>0.00270015699788928</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.0001231559726875275</v>
+        <v>0.02328494749963284</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.0003734102938324213</v>
+        <v>0.02029403299093246</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.002334927674382925</v>
+        <v>0.02264255098998547</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.006700110621750355</v>
+        <v>0.04473653808236122</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.001451245625503361</v>
+        <v>0.03484946489334106</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.001235946896485984</v>
+        <v>0.0118772815912962</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.0005685626529157162</v>
+        <v>0.006335279904305935</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.001345001510344446</v>
+        <v>0.01213191449642181</v>
       </c>
       <c r="FV13" t="n">
-        <v>0.000118513940833509</v>
+        <v>0.03453251719474792</v>
       </c>
       <c r="FW13" t="n">
-        <v>0.00125679059419781</v>
+        <v>0.006351092364639044</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.001750466180965304</v>
+        <v>0.01745818555355072</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.00178786285687238</v>
+        <v>0.05729672312736511</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.001765422988682985</v>
+        <v>0.0179210752248764</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.0008831797167658806</v>
+        <v>0.03055831789970398</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.0006249997531995177</v>
+        <v>0.01633109338581562</v>
       </c>
       <c r="GC13" t="n">
-        <v>0.001979814376682043</v>
+        <v>0.01455988176167011</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.0002907844318542629</v>
+        <v>0.02308960445225239</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.001070130150765181</v>
+        <v>0.1161069348454475</v>
       </c>
       <c r="GF13" t="n">
-        <v>8.543021976947784e-06</v>
+        <v>0.002471242100000381</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.001481935032643378</v>
+        <v>0.008502088487148285</v>
       </c>
     </row>
     <row r="14">
